--- a/Sofar.CertificationDataViewer/产品认证统计表_原始.xlsx
+++ b/Sofar.CertificationDataViewer/产品认证统计表_原始.xlsx
@@ -603,7 +603,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12482" uniqueCount="2712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12482" uniqueCount="2711">
   <si>
     <t>ID</t>
   </si>
@@ -7007,7 +7007,7 @@
     <t>type A and B TR 3.3.1</t>
   </si>
   <si>
-    <t>HYD 3-6K-EP（改ID）</t>
+    <t>HYD 3-6K-EP(改ID)</t>
   </si>
   <si>
     <t>2088AP0917N006013</t>
@@ -7457,8 +7457,7 @@
     <t>230331JHA068-EG-NI-V002-R2</t>
   </si>
   <si>
-    <t>HYD 3-6K-EP
-(C版本+提升电流）)</t>
+    <t>HYD 3-6K-EP(C版本+提升电流）)</t>
   </si>
   <si>
     <t>230331JHA068-EG-UK-V002-R2</t>
@@ -7469,6 +7468,9 @@
 3 October 2022 &amp; Type A</t>
   </si>
   <si>
+    <t>HYD 3-6K-EP(C版本+提升电流)</t>
+  </si>
+  <si>
     <t>230331JHA068-EG-NI-V001-R2</t>
   </si>
   <si>
@@ -7478,41 +7480,7 @@
     <t>Engineering Recommendation G99lssue 1 - Amendment 9 3 October 2022</t>
   </si>
   <si>
-    <t>HYD 3-6K-EP
-(C版本+提升电流)</t>
-  </si>
-  <si>
     <t>CN-PVES-230327R2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>HYD 3-6K-EP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(C版本+提升电流)</t>
-    </r>
   </si>
   <si>
     <t>CN-PVES-230353R2</t>
@@ -8190,44 +8158,47 @@
     <t>CN-PV-230003</t>
   </si>
   <si>
+    <t>HYD 5-20KTL-3PH(C版本)</t>
+  </si>
+  <si>
+    <t>CN-PV-230013</t>
+  </si>
+  <si>
+    <t>IEC 61727:2004 &amp; IEC 62116:2014 &amp; IEC 60068-2-1:2007, IEC 60068-2-2:2007, IEC 60068-2-14:2009, 
+IEC 60068-2-30:2005, IEC 61683:1999</t>
+  </si>
+  <si>
+    <t>CN-PV-230014</t>
+  </si>
+  <si>
+    <t>221014102GZU-VOC001</t>
+  </si>
+  <si>
+    <t>GZES2207014048PVA01</t>
+  </si>
+  <si>
+    <t>2622/0100-E1-CER</t>
+  </si>
+  <si>
+    <t>NTS  631(typeA)</t>
+  </si>
+  <si>
+    <t>2622/0100-1-E1-B-CER</t>
+  </si>
+  <si>
+    <t>2622/0100-1-E1-A-CER</t>
+  </si>
+  <si>
+    <t>UNE 217002: 2020 &amp; IEC 62116</t>
+  </si>
+  <si>
+    <t>23-081-00</t>
+  </si>
+  <si>
     <t>HYD 5-20KTL-3PH
 (C版本)</t>
   </si>
   <si>
-    <t>CN-PV-230013</t>
-  </si>
-  <si>
-    <t>IEC 61727:2004 &amp; IEC 62116:2014 &amp; IEC 60068-2-1:2007, IEC 60068-2-2:2007, IEC 60068-2-14:2009, 
-IEC 60068-2-30:2005, IEC 61683:1999</t>
-  </si>
-  <si>
-    <t>CN-PV-230014</t>
-  </si>
-  <si>
-    <t>221014102GZU-VOC001</t>
-  </si>
-  <si>
-    <t>GZES2207014048PVA01</t>
-  </si>
-  <si>
-    <t>2622/0100-E1-CER</t>
-  </si>
-  <si>
-    <t>NTS  631(typeA)</t>
-  </si>
-  <si>
-    <t>2622/0100-1-E1-B-CER</t>
-  </si>
-  <si>
-    <t>2622/0100-1-E1-A-CER</t>
-  </si>
-  <si>
-    <t>UNE 217002: 2020 &amp; IEC 62116</t>
-  </si>
-  <si>
-    <t>23-081-00</t>
-  </si>
-  <si>
     <t>221109065GZU-001</t>
   </si>
   <si>
@@ -8292,8 +8263,7 @@
     <t>231013130GZU-VOC001</t>
   </si>
   <si>
-    <t>HYD 5-20KTL-3PH
-(提升电流)</t>
+    <t>HYD 5-20KTL-3PH(提升电流)</t>
   </si>
   <si>
     <t>/</t>
@@ -8309,36 +8279,6 @@
   </si>
   <si>
     <t>C10/11:2021</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>HYD 5-20KTL-3PH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(提升电流)</t>
-    </r>
   </si>
   <si>
     <t>231013131GZU-VOC001</t>
@@ -9308,12 +9248,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -9323,13 +9264,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="14"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -10974,7 +10914,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E1640" sqref="E1640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -10982,7 +10922,7 @@
     <col min="2" max="2" width="24.1018518518519" customWidth="1"/>
     <col min="3" max="3" width="15.8148148148148" customWidth="1"/>
     <col min="4" max="4" width="17.6018518518519" customWidth="1"/>
-    <col min="5" max="5" width="17.5185185185185" customWidth="1"/>
+    <col min="5" max="5" width="29.9074074074074" customWidth="1"/>
     <col min="6" max="6" width="16.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="14.4444444444444" customWidth="1"/>
     <col min="8" max="8" width="12.8240740740741" customWidth="1"/>
@@ -10991,7 +10931,7 @@
     <col min="13" max="13" width="14.0185185185185" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" ht="14.55" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15362,7 +15302,7 @@
       </c>
       <c r="K102" s="21">
         <f ca="1" t="shared" si="4"/>
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="L102" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
@@ -15406,7 +15346,7 @@
       </c>
       <c r="K103" s="21">
         <f ca="1" t="shared" si="4"/>
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="L103" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
@@ -29475,7 +29415,7 @@
       </c>
       <c r="K431" s="21">
         <f ca="1" t="shared" ref="K431:K494" si="25">IF(H431="过期","过期",IF(H431="长期有效","长期有效",IF(TODAY()&gt;H431,"过期",IF(H431-TODAY()&lt;=180,H431-TODAY(),"正常"))))</f>
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="L431" s="21" t="str">
         <f ca="1" t="shared" ref="L431:L494" si="26">IF(G431="过期","过期",IF(G431="长期有效","长期有效",IF(TODAY()&gt;G431,"过期",IF(G431-TODAY()&lt;=180,G431-TODAY(),"正常"))))</f>
@@ -29519,7 +29459,7 @@
       </c>
       <c r="K432" s="21">
         <f ca="1" t="shared" si="25"/>
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="L432" s="21" t="str">
         <f ca="1" t="shared" si="26"/>
@@ -29899,7 +29839,7 @@
       </c>
       <c r="J441" s="20">
         <f ca="1" t="shared" si="24"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K441" s="18" t="str">
         <f ca="1" t="shared" si="25"/>
@@ -29907,7 +29847,7 @@
       </c>
       <c r="L441" s="21">
         <f ca="1" t="shared" si="26"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M441" s="19" t="s">
         <v>32</v>
@@ -35735,7 +35675,7 @@
       </c>
       <c r="K577" s="21">
         <f ca="1" t="shared" si="31"/>
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="L577" s="21" t="str">
         <f ca="1" t="shared" si="32"/>
@@ -35777,7 +35717,7 @@
       </c>
       <c r="K578" s="21">
         <f ca="1" t="shared" si="31"/>
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="L578" s="21" t="str">
         <f ca="1" t="shared" si="32"/>
@@ -35819,7 +35759,7 @@
       </c>
       <c r="K579" s="21">
         <f ca="1" t="shared" si="31"/>
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="L579" s="21" t="str">
         <f ca="1" t="shared" si="32"/>
@@ -35861,7 +35801,7 @@
       </c>
       <c r="K580" s="21">
         <f ca="1" t="shared" si="31"/>
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="L580" s="21" t="str">
         <f ca="1" t="shared" si="32"/>
@@ -45964,7 +45904,7 @@
       </c>
       <c r="J817" s="20">
         <f ca="1" t="shared" si="44"/>
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K817" s="18" t="str">
         <f ca="1" t="shared" si="45"/>
@@ -45972,7 +45912,7 @@
       </c>
       <c r="L817" s="21">
         <f ca="1" t="shared" si="46"/>
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="M817" s="19" t="s">
         <v>68</v>
@@ -50749,7 +50689,7 @@
       </c>
       <c r="J930" s="20">
         <f ca="1" t="shared" si="50"/>
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K930" s="21" t="str">
         <f ca="1" t="shared" si="48"/>
@@ -50757,7 +50697,7 @@
       </c>
       <c r="L930" s="21">
         <f ca="1" t="shared" si="49"/>
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M930" s="19"/>
     </row>
@@ -50791,7 +50731,7 @@
       </c>
       <c r="J931" s="20">
         <f ca="1" t="shared" si="50"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K931" s="21" t="str">
         <f ca="1" t="shared" si="48"/>
@@ -50799,7 +50739,7 @@
       </c>
       <c r="L931" s="21">
         <f ca="1" t="shared" si="49"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M931" s="19"/>
     </row>
@@ -50833,7 +50773,7 @@
       </c>
       <c r="J932" s="20">
         <f ca="1" t="shared" si="50"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K932" s="21" t="str">
         <f ca="1" t="shared" si="48"/>
@@ -50841,7 +50781,7 @@
       </c>
       <c r="L932" s="21">
         <f ca="1" t="shared" si="49"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M932" s="19"/>
     </row>
@@ -51945,7 +51885,7 @@
       </c>
       <c r="J958" s="20">
         <f ca="1" t="shared" si="50"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K958" s="21" t="str">
         <f ca="1" t="shared" si="51"/>
@@ -51953,7 +51893,7 @@
       </c>
       <c r="L958" s="21">
         <f ca="1" t="shared" si="52"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M958" s="19"/>
     </row>
@@ -51987,7 +51927,7 @@
       </c>
       <c r="J959" s="20">
         <f ca="1" t="shared" si="50"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K959" s="21" t="str">
         <f ca="1" t="shared" si="51"/>
@@ -51995,7 +51935,7 @@
       </c>
       <c r="L959" s="21">
         <f ca="1" t="shared" si="52"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M959" s="19"/>
     </row>
@@ -52409,17 +52349,17 @@
       <c r="I969" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="J969" s="20">
+      <c r="J969" s="20" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>10</v>
+        <v>过期</v>
       </c>
       <c r="K969" s="21" t="str">
         <f ca="1" t="shared" si="51"/>
         <v>长期有效</v>
       </c>
-      <c r="L969" s="21">
+      <c r="L969" s="21" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>10</v>
+        <v>过期</v>
       </c>
       <c r="M969" s="13"/>
     </row>
@@ -52451,17 +52391,17 @@
       <c r="I970" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="J970" s="20">
+      <c r="J970" s="20" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>10</v>
+        <v>过期</v>
       </c>
       <c r="K970" s="21" t="str">
         <f ca="1" t="shared" si="51"/>
         <v>长期有效</v>
       </c>
-      <c r="L970" s="21">
+      <c r="L970" s="21" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>10</v>
+        <v>过期</v>
       </c>
       <c r="M970" s="19"/>
     </row>
@@ -54529,7 +54469,7 @@
       </c>
       <c r="K1019" s="21">
         <f ca="1" t="shared" si="54"/>
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="L1019" s="21" t="str">
         <f ca="1" t="shared" si="55"/>
@@ -56374,7 +56314,7 @@
       </c>
       <c r="L1063" s="21">
         <f ca="1" t="shared" si="58"/>
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="M1063" s="13"/>
     </row>
@@ -57256,7 +57196,7 @@
       </c>
       <c r="K1084" s="21">
         <f ca="1" t="shared" si="57"/>
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="L1084" s="17" t="str">
         <f ca="1" t="shared" si="58"/>
@@ -58694,7 +58634,7 @@
       </c>
       <c r="K1119" s="21">
         <f ca="1" t="shared" ref="K1119:K1123" si="62">IF(H1119="过期","过期",IF(H1119="长期有效","长期有效",IF(TODAY()&gt;H1119,"过期",IF(H1119-TODAY()&lt;=180,H1119-TODAY(),"正常"))))</f>
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="L1119" s="21" t="str">
         <f ca="1" t="shared" ref="L1119:L1123" si="63">IF(G1119="过期","过期",IF(G1119="长期有效","长期有效",IF(TODAY()&gt;G1119,"过期",IF(G1119-TODAY()&lt;=180,G1119-TODAY(),"正常"))))</f>
@@ -63548,7 +63488,7 @@
       </c>
       <c r="L1238" s="21">
         <f ca="1" t="shared" si="69"/>
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="M1238" s="19"/>
     </row>
@@ -63589,7 +63529,7 @@
       </c>
       <c r="L1239" s="21">
         <f ca="1" t="shared" si="69"/>
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="M1239" s="19"/>
     </row>
@@ -69087,7 +69027,7 @@
       </c>
       <c r="J1370" s="20">
         <f ca="1" t="shared" si="76"/>
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="K1370" s="21" t="str">
         <f ca="1" t="shared" si="74"/>
@@ -69095,7 +69035,7 @@
       </c>
       <c r="L1370" s="21">
         <f ca="1" t="shared" si="75"/>
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="M1370" s="19"/>
     </row>
@@ -69129,7 +69069,7 @@
       </c>
       <c r="J1371" s="20">
         <f ca="1" t="shared" si="76"/>
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="K1371" s="21" t="str">
         <f ca="1" t="shared" si="74"/>
@@ -69137,7 +69077,7 @@
       </c>
       <c r="L1371" s="21">
         <f ca="1" t="shared" si="75"/>
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="M1371" s="19"/>
     </row>
@@ -69171,7 +69111,7 @@
       </c>
       <c r="J1372" s="20">
         <f ca="1" t="shared" si="76"/>
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="K1372" s="21" t="str">
         <f ca="1" t="shared" si="74"/>
@@ -69179,7 +69119,7 @@
       </c>
       <c r="L1372" s="21">
         <f ca="1" t="shared" si="75"/>
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="M1372" s="19"/>
     </row>
@@ -69213,7 +69153,7 @@
       </c>
       <c r="J1373" s="20">
         <f ca="1" t="shared" si="76"/>
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="K1373" s="21" t="str">
         <f ca="1" t="shared" si="74"/>
@@ -69221,7 +69161,7 @@
       </c>
       <c r="L1373" s="21">
         <f ca="1" t="shared" si="75"/>
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="M1373" s="19"/>
     </row>
@@ -73562,7 +73502,7 @@
         <v>2227</v>
       </c>
       <c r="E1476" s="5" t="s">
-        <v>2225</v>
+        <v>2228</v>
       </c>
       <c r="F1476" s="7">
         <v>45264</v>
@@ -73595,7 +73535,7 @@
         <v>1476</v>
       </c>
       <c r="B1477" s="13" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="C1477" s="13" t="s">
         <v>706</v>
@@ -73604,7 +73544,7 @@
         <v>1448</v>
       </c>
       <c r="E1477" s="13" t="s">
-        <v>2225</v>
+        <v>2228</v>
       </c>
       <c r="F1477" s="7">
         <v>45264</v>
@@ -73637,16 +73577,16 @@
         <v>1477</v>
       </c>
       <c r="B1478" s="13" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="C1478" s="13" t="s">
         <v>706</v>
       </c>
       <c r="D1478" s="13" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="E1478" s="13" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="F1478" s="7">
         <v>45264</v>
@@ -73688,7 +73628,7 @@
         <v>1022</v>
       </c>
       <c r="E1479" s="37" t="s">
-        <v>2233</v>
+        <v>2228</v>
       </c>
       <c r="F1479" s="38">
         <v>45390</v>
@@ -73718,7 +73658,7 @@
         <v>1479</v>
       </c>
       <c r="B1480" s="35" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="C1480" s="37" t="s">
         <v>22</v>
@@ -73727,7 +73667,7 @@
         <v>543</v>
       </c>
       <c r="E1480" s="37" t="s">
-        <v>2233</v>
+        <v>2228</v>
       </c>
       <c r="F1480" s="38">
         <v>45390</v>
@@ -73752,12 +73692,12 @@
       </c>
       <c r="M1480" s="52"/>
     </row>
-    <row r="1481" ht="24.75" spans="1:13">
+    <row r="1481" spans="1:13">
       <c r="A1481" s="5">
         <v>1480</v>
       </c>
       <c r="B1481" s="35" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="C1481" s="37" t="s">
         <v>22</v>
@@ -73766,7 +73706,7 @@
         <v>311</v>
       </c>
       <c r="E1481" s="37" t="s">
-        <v>2233</v>
+        <v>2228</v>
       </c>
       <c r="F1481" s="38">
         <v>45390</v>
@@ -73796,7 +73736,7 @@
         <v>1481</v>
       </c>
       <c r="B1482" s="5" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="C1482" s="13" t="s">
         <v>22</v>
@@ -73805,7 +73745,7 @@
         <v>1442</v>
       </c>
       <c r="E1482" s="13" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="F1482" s="7">
         <v>45282</v>
@@ -73835,16 +73775,16 @@
         <v>1482</v>
       </c>
       <c r="B1483" s="35" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="C1483" s="37" t="s">
         <v>22</v>
       </c>
       <c r="D1483" s="35" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="E1483" s="37" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="F1483" s="38">
         <v>45401</v>
@@ -73874,7 +73814,7 @@
         <v>1483</v>
       </c>
       <c r="B1484" s="5" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="C1484" s="13" t="s">
         <v>22</v>
@@ -73883,7 +73823,7 @@
         <v>1442</v>
       </c>
       <c r="E1484" s="13" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="F1484" s="7">
         <v>45282</v>
@@ -73910,16 +73850,16 @@
         <v>1484</v>
       </c>
       <c r="B1485" s="37" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="C1485" s="37" t="s">
         <v>22</v>
       </c>
       <c r="D1485" s="37" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="E1485" s="37" t="s">
-        <v>2233</v>
+        <v>2228</v>
       </c>
       <c r="F1485" s="38">
         <v>45401</v>
@@ -73949,16 +73889,16 @@
         <v>1485</v>
       </c>
       <c r="B1486" s="35" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="C1486" s="37" t="s">
         <v>22</v>
       </c>
       <c r="D1486" s="35" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="E1486" s="37" t="s">
-        <v>2233</v>
+        <v>2228</v>
       </c>
       <c r="F1486" s="38">
         <v>45405</v>
@@ -73988,16 +73928,16 @@
         <v>1486</v>
       </c>
       <c r="B1487" s="35" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="C1487" s="37" t="s">
         <v>22</v>
       </c>
       <c r="D1487" s="35" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="E1487" s="37" t="s">
-        <v>2233</v>
+        <v>2228</v>
       </c>
       <c r="F1487" s="38">
         <v>45405</v>
@@ -74027,16 +73967,16 @@
         <v>1487</v>
       </c>
       <c r="B1488" s="5" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="C1488" s="26" t="s">
         <v>706</v>
       </c>
       <c r="D1488" s="5" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="E1488" s="13" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="F1488" s="7">
         <v>45264</v>
@@ -74063,16 +74003,16 @@
         <v>1488</v>
       </c>
       <c r="B1489" s="5" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="C1489" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D1489" s="5" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="E1489" s="13" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="F1489" s="10">
         <v>45287</v>
@@ -74096,15 +74036,15 @@
         <v>24</v>
       </c>
       <c r="M1489" s="54" t="s">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="1490" ht="24.75" spans="1:13">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:13">
       <c r="A1490" s="5">
         <v>1489</v>
       </c>
       <c r="B1490" s="5" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="C1490" s="13" t="s">
         <v>22</v>
@@ -74113,7 +74053,7 @@
         <v>413</v>
       </c>
       <c r="E1490" s="13" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="F1490" s="7">
         <v>45391</v>
@@ -74143,16 +74083,16 @@
         <v>1490</v>
       </c>
       <c r="B1491" s="5" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="C1491" s="26" t="s">
         <v>151</v>
       </c>
       <c r="D1491" s="5" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E1491" s="5" t="s">
         <v>2250</v>
-      </c>
-      <c r="E1491" s="5" t="s">
-        <v>2251</v>
       </c>
       <c r="F1491" s="7">
         <v>43444</v>
@@ -74187,16 +74127,16 @@
         <v>1491</v>
       </c>
       <c r="B1492" s="35" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C1492" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D1492" s="35" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="E1492" s="35" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1492" s="80">
         <v>45401</v>
@@ -74226,7 +74166,7 @@
         <v>1492</v>
       </c>
       <c r="B1493" s="5" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="C1493" s="5" t="s">
         <v>22</v>
@@ -74235,7 +74175,7 @@
         <v>2086</v>
       </c>
       <c r="E1493" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1493" s="24">
         <v>43700</v>
@@ -74270,7 +74210,7 @@
         <v>1493</v>
       </c>
       <c r="B1494" s="5" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="C1494" s="5" t="s">
         <v>22</v>
@@ -74279,7 +74219,7 @@
         <v>2086</v>
       </c>
       <c r="E1494" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1494" s="24">
         <v>43692</v>
@@ -74314,16 +74254,16 @@
         <v>1494</v>
       </c>
       <c r="B1495" s="5" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="C1495" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1495" s="5" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="E1495" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1495" s="24">
         <v>43935</v>
@@ -74350,7 +74290,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1495" s="19" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1496" ht="192.75" spans="1:13">
@@ -74358,16 +74298,16 @@
         <v>1495</v>
       </c>
       <c r="B1496" s="5" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="C1496" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1496" s="5" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="E1496" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1496" s="24">
         <v>43728</v>
@@ -74394,7 +74334,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1496" s="19" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1497" ht="60.75" spans="1:13">
@@ -74402,16 +74342,16 @@
         <v>1496</v>
       </c>
       <c r="B1497" s="5" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="C1497" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1497" s="5" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="E1497" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1497" s="24">
         <v>43971</v>
@@ -74438,7 +74378,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1497" s="19" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1498" ht="60.75" spans="1:13">
@@ -74446,16 +74386,16 @@
         <v>1497</v>
       </c>
       <c r="B1498" s="5" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="C1498" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1498" s="5" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="E1498" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1498" s="24">
         <v>43971</v>
@@ -74482,7 +74422,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1498" s="33" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1499" ht="72.75" spans="1:13">
@@ -74490,16 +74430,16 @@
         <v>1498</v>
       </c>
       <c r="B1499" s="5" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="C1499" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1499" s="5" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="E1499" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1499" s="24">
         <v>43692</v>
@@ -74526,7 +74466,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1499" s="19" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1500" ht="72.75" spans="1:13">
@@ -74534,16 +74474,16 @@
         <v>1499</v>
       </c>
       <c r="B1500" s="5" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="C1500" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1500" s="5" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="E1500" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1500" s="24">
         <v>43692</v>
@@ -74570,7 +74510,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1500" s="19" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1501" ht="36.75" spans="1:13">
@@ -74578,7 +74518,7 @@
         <v>1500</v>
       </c>
       <c r="B1501" s="5" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C1501" s="5" t="s">
         <v>22</v>
@@ -74587,7 +74527,7 @@
         <v>643</v>
       </c>
       <c r="E1501" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1501" s="24">
         <v>44145</v>
@@ -74620,16 +74560,16 @@
         <v>1501</v>
       </c>
       <c r="B1502" s="5" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C1502" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D1502" s="5" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="E1502" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1502" s="24">
         <v>43545</v>
@@ -74662,16 +74602,16 @@
         <v>1502</v>
       </c>
       <c r="B1503" s="5" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="C1503" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D1503" s="5" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="E1503" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1503" s="24">
         <v>44631</v>
@@ -74704,7 +74644,7 @@
         <v>1503</v>
       </c>
       <c r="B1504" s="5" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="C1504" s="5" t="s">
         <v>22</v>
@@ -74713,7 +74653,7 @@
         <v>311</v>
       </c>
       <c r="E1504" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1504" s="24">
         <v>43819</v>
@@ -74746,7 +74686,7 @@
         <v>1504</v>
       </c>
       <c r="B1505" s="5" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="C1505" s="5" t="s">
         <v>22</v>
@@ -74755,7 +74695,7 @@
         <v>188</v>
       </c>
       <c r="E1505" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1505" s="24">
         <v>43410</v>
@@ -74790,16 +74730,16 @@
         <v>1505</v>
       </c>
       <c r="B1506" s="5" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="C1506" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1506" s="5" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="E1506" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1506" s="24">
         <v>44102</v>
@@ -74834,16 +74774,16 @@
         <v>1506</v>
       </c>
       <c r="B1507" s="5" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="C1507" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1507" s="5" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="E1507" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1507" s="24">
         <v>43557</v>
@@ -74878,16 +74818,16 @@
         <v>1507</v>
       </c>
       <c r="B1508" s="5" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="C1508" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1508" s="5" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="E1508" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1508" s="24">
         <v>43557</v>
@@ -74922,16 +74862,16 @@
         <v>1508</v>
       </c>
       <c r="B1509" s="5" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="C1509" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1509" s="5" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="E1509" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1509" s="24">
         <v>43536</v>
@@ -74966,7 +74906,7 @@
         <v>1509</v>
       </c>
       <c r="B1510" s="5" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="C1510" s="5" t="s">
         <v>22</v>
@@ -74975,7 +74915,7 @@
         <v>822</v>
       </c>
       <c r="E1510" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1510" s="24">
         <v>43446</v>
@@ -75010,7 +74950,7 @@
         <v>1510</v>
       </c>
       <c r="B1511" s="5" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="C1511" s="5" t="s">
         <v>74</v>
@@ -75019,7 +74959,7 @@
         <v>1328</v>
       </c>
       <c r="E1511" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1511" s="24">
         <v>44179</v>
@@ -75052,16 +74992,16 @@
         <v>1511</v>
       </c>
       <c r="B1512" s="5" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="C1512" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1512" s="5" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="E1512" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1512" s="24">
         <v>44179</v>
@@ -75094,7 +75034,7 @@
         <v>1512</v>
       </c>
       <c r="B1513" s="5" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="C1513" s="5" t="s">
         <v>22</v>
@@ -75103,7 +75043,7 @@
         <v>188</v>
       </c>
       <c r="E1513" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1513" s="24">
         <v>43439</v>
@@ -75138,16 +75078,16 @@
         <v>1513</v>
       </c>
       <c r="B1514" s="5" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="C1514" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D1514" s="5" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="E1514" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1514" s="24">
         <v>43616</v>
@@ -75182,7 +75122,7 @@
         <v>1514</v>
       </c>
       <c r="B1515" s="5" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="C1515" s="5" t="s">
         <v>22</v>
@@ -75191,7 +75131,7 @@
         <v>188</v>
       </c>
       <c r="E1515" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1515" s="24">
         <v>43600</v>
@@ -75226,7 +75166,7 @@
         <v>1515</v>
       </c>
       <c r="B1516" s="5" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="C1516" s="5" t="s">
         <v>74</v>
@@ -75235,7 +75175,7 @@
         <v>85</v>
       </c>
       <c r="E1516" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1516" s="24">
         <v>44337</v>
@@ -75270,7 +75210,7 @@
         <v>1516</v>
       </c>
       <c r="B1517" s="5" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="C1517" s="5" t="s">
         <v>74</v>
@@ -75279,7 +75219,7 @@
         <v>85</v>
       </c>
       <c r="E1517" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1517" s="24">
         <v>44025</v>
@@ -75314,7 +75254,7 @@
         <v>1517</v>
       </c>
       <c r="B1518" s="5" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="C1518" s="5" t="s">
         <v>74</v>
@@ -75323,7 +75263,7 @@
         <v>85</v>
       </c>
       <c r="E1518" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1518" s="24">
         <v>44134</v>
@@ -75358,7 +75298,7 @@
         <v>1518</v>
       </c>
       <c r="B1519" s="5" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="C1519" s="5" t="s">
         <v>74</v>
@@ -75367,7 +75307,7 @@
         <v>85</v>
       </c>
       <c r="E1519" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1519" s="24">
         <v>43430</v>
@@ -75402,16 +75342,16 @@
         <v>1519</v>
       </c>
       <c r="B1520" s="5" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="C1520" s="5" t="s">
         <v>439</v>
       </c>
       <c r="D1520" s="5" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="E1520" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1520" s="24">
         <v>44135</v>
@@ -75444,7 +75384,7 @@
         <v>1520</v>
       </c>
       <c r="B1521" s="5" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="C1521" s="5" t="s">
         <v>74</v>
@@ -75453,7 +75393,7 @@
         <v>85</v>
       </c>
       <c r="E1521" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1521" s="24">
         <v>43882</v>
@@ -75488,7 +75428,7 @@
         <v>1521</v>
       </c>
       <c r="B1522" s="5" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="C1522" s="5" t="s">
         <v>22</v>
@@ -75497,7 +75437,7 @@
         <v>188</v>
       </c>
       <c r="E1522" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1522" s="24">
         <v>43439</v>
@@ -75532,7 +75472,7 @@
         <v>1522</v>
       </c>
       <c r="B1523" s="5" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="C1523" s="26" t="s">
         <v>97</v>
@@ -75541,7 +75481,7 @@
         <v>339</v>
       </c>
       <c r="E1523" s="28" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1523" s="24">
         <v>43676</v>
@@ -75574,7 +75514,7 @@
         <v>1523</v>
       </c>
       <c r="B1524" s="5" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="C1524" s="5" t="s">
         <v>22</v>
@@ -75583,7 +75523,7 @@
         <v>1130</v>
       </c>
       <c r="E1524" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1524" s="24">
         <v>43713</v>
@@ -75616,7 +75556,7 @@
         <v>1524</v>
       </c>
       <c r="B1525" s="5" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C1525" s="5" t="s">
         <v>14</v>
@@ -75625,7 +75565,7 @@
         <v>110</v>
       </c>
       <c r="E1525" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1525" s="24">
         <v>43490</v>
@@ -75658,16 +75598,16 @@
         <v>1525</v>
       </c>
       <c r="B1526" s="5" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="C1526" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D1526" s="5" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="E1526" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1526" s="24">
         <v>43706</v>
@@ -75702,16 +75642,16 @@
         <v>1526</v>
       </c>
       <c r="B1527" s="5" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="C1527" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D1527" s="5" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="E1527" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1527" s="24">
         <v>43706</v>
@@ -75746,16 +75686,16 @@
         <v>1527</v>
       </c>
       <c r="B1528" s="5" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="C1528" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D1528" s="5" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="E1528" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1528" s="24">
         <v>43719</v>
@@ -75790,16 +75730,16 @@
         <v>1528</v>
       </c>
       <c r="B1529" s="5" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="C1529" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D1529" s="5" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="E1529" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1529" s="24">
         <v>43354</v>
@@ -75834,16 +75774,16 @@
         <v>1529</v>
       </c>
       <c r="B1530" s="5" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="C1530" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D1530" s="5" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="E1530" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1530" s="24">
         <v>43574</v>
@@ -75878,7 +75818,7 @@
         <v>1530</v>
       </c>
       <c r="B1531" s="5" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="C1531" s="5" t="s">
         <v>22</v>
@@ -75887,7 +75827,7 @@
         <v>696</v>
       </c>
       <c r="E1531" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1531" s="24">
         <v>43574</v>
@@ -75922,7 +75862,7 @@
         <v>1531</v>
       </c>
       <c r="B1532" s="5" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="C1532" s="5" t="s">
         <v>22</v>
@@ -75931,7 +75871,7 @@
         <v>104</v>
       </c>
       <c r="E1532" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1532" s="24">
         <v>44575</v>
@@ -75964,7 +75904,7 @@
         <v>1532</v>
       </c>
       <c r="B1533" s="5" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="C1533" s="5" t="s">
         <v>38</v>
@@ -75973,7 +75913,7 @@
         <v>2148</v>
       </c>
       <c r="E1533" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1533" s="24">
         <v>44575</v>
@@ -76006,7 +75946,7 @@
         <v>1533</v>
       </c>
       <c r="B1534" s="5" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="C1534" s="5" t="s">
         <v>38</v>
@@ -76015,7 +75955,7 @@
         <v>124</v>
       </c>
       <c r="E1534" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1534" s="24">
         <v>44575</v>
@@ -76048,7 +75988,7 @@
         <v>1534</v>
       </c>
       <c r="B1535" s="5" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="C1535" s="5" t="s">
         <v>118</v>
@@ -76057,7 +75997,7 @@
         <v>119</v>
       </c>
       <c r="E1535" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1535" s="24">
         <v>44623</v>
@@ -76090,7 +76030,7 @@
         <v>1535</v>
       </c>
       <c r="B1536" s="5" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="C1536" s="5" t="s">
         <v>14</v>
@@ -76099,7 +76039,7 @@
         <v>699</v>
       </c>
       <c r="E1536" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1536" s="24">
         <v>44636</v>
@@ -76132,7 +76072,7 @@
         <v>1536</v>
       </c>
       <c r="B1537" s="5" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="C1537" s="5" t="s">
         <v>14</v>
@@ -76141,7 +76081,7 @@
         <v>126</v>
       </c>
       <c r="E1537" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1537" s="24">
         <v>44648</v>
@@ -76174,7 +76114,7 @@
         <v>1537</v>
       </c>
       <c r="B1538" s="5" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="C1538" s="5" t="s">
         <v>14</v>
@@ -76183,7 +76123,7 @@
         <v>735</v>
       </c>
       <c r="E1538" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1538" s="24">
         <v>44697</v>
@@ -76218,7 +76158,7 @@
         <v>1538</v>
       </c>
       <c r="B1539" s="5" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="C1539" s="5" t="s">
         <v>14</v>
@@ -76227,7 +76167,7 @@
         <v>735</v>
       </c>
       <c r="E1539" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1539" s="24">
         <v>44697</v>
@@ -76262,7 +76202,7 @@
         <v>1539</v>
       </c>
       <c r="B1540" s="5" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="C1540" s="5" t="s">
         <v>14</v>
@@ -76271,7 +76211,7 @@
         <v>137</v>
       </c>
       <c r="E1540" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1540" s="24">
         <v>44636</v>
@@ -76304,7 +76244,7 @@
         <v>1540</v>
       </c>
       <c r="B1541" s="5" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="C1541" s="5" t="s">
         <v>22</v>
@@ -76313,7 +76253,7 @@
         <v>902</v>
       </c>
       <c r="E1541" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1541" s="24">
         <v>44830</v>
@@ -76346,7 +76286,7 @@
         <v>1541</v>
       </c>
       <c r="B1542" s="5" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="C1542" s="5" t="s">
         <v>22</v>
@@ -76355,7 +76295,7 @@
         <v>365</v>
       </c>
       <c r="E1542" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1542" s="24">
         <v>44812</v>
@@ -76390,7 +76330,7 @@
         <v>1542</v>
       </c>
       <c r="B1543" s="5" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="C1543" s="5" t="s">
         <v>22</v>
@@ -76399,7 +76339,7 @@
         <v>139</v>
       </c>
       <c r="E1543" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1543" s="24">
         <v>44827</v>
@@ -76434,7 +76374,7 @@
         <v>1543</v>
       </c>
       <c r="B1544" s="5" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="C1544" s="5" t="s">
         <v>22</v>
@@ -76443,7 +76383,7 @@
         <v>232</v>
       </c>
       <c r="E1544" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="F1544" s="24">
         <v>44831</v>
@@ -76478,16 +76418,16 @@
         <v>1544</v>
       </c>
       <c r="B1545" s="5" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="C1545" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D1545" s="5" t="s">
+        <v>2328</v>
+      </c>
+      <c r="E1545" s="26" t="s">
         <v>2329</v>
-      </c>
-      <c r="E1545" s="26" t="s">
-        <v>2330</v>
       </c>
       <c r="F1545" s="24">
         <v>44096</v>
@@ -76522,16 +76462,16 @@
         <v>1545</v>
       </c>
       <c r="B1546" s="5" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="C1546" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D1546" s="5" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="E1546" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1546" s="24">
         <v>43993</v>
@@ -76558,7 +76498,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1546" s="19" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1547" ht="36.75" spans="1:13">
@@ -76566,7 +76506,7 @@
         <v>1546</v>
       </c>
       <c r="B1547" s="5" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="C1547" s="5" t="s">
         <v>74</v>
@@ -76575,7 +76515,7 @@
         <v>2083</v>
       </c>
       <c r="E1547" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1547" s="24">
         <v>44071</v>
@@ -76610,7 +76550,7 @@
         <v>1547</v>
       </c>
       <c r="B1548" s="5" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="C1548" s="5" t="s">
         <v>22</v>
@@ -76619,7 +76559,7 @@
         <v>302</v>
       </c>
       <c r="E1548" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1548" s="24">
         <v>44425</v>
@@ -76654,16 +76594,16 @@
         <v>1548</v>
       </c>
       <c r="B1549" s="5" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="C1549" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1549" s="5" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="E1549" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1549" s="24">
         <v>44134</v>
@@ -76696,7 +76636,7 @@
         <v>1549</v>
       </c>
       <c r="B1550" s="5" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="C1550" s="5" t="s">
         <v>74</v>
@@ -76705,7 +76645,7 @@
         <v>2092</v>
       </c>
       <c r="E1550" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1550" s="24">
         <v>44119</v>
@@ -76738,16 +76678,16 @@
         <v>1550</v>
       </c>
       <c r="B1551" s="5" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="C1551" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1551" s="5" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="E1551" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1551" s="24">
         <v>43854</v>
@@ -76774,7 +76714,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1551" s="19" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1552" ht="132.75" spans="1:13">
@@ -76782,16 +76722,16 @@
         <v>1551</v>
       </c>
       <c r="B1552" s="5" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="C1552" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1552" s="5" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="E1552" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1552" s="24">
         <v>43999</v>
@@ -76818,7 +76758,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1552" s="19" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1553" ht="192.75" spans="1:13">
@@ -76826,16 +76766,16 @@
         <v>1552</v>
       </c>
       <c r="B1553" s="5" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="C1553" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1553" s="5" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="E1553" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1553" s="24">
         <v>43976</v>
@@ -76862,7 +76802,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1553" s="19" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1554" ht="36.75" spans="1:13">
@@ -76879,7 +76819,7 @@
         <v>411</v>
       </c>
       <c r="E1554" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1554" s="24">
         <v>44236</v>
@@ -76912,16 +76852,16 @@
         <v>1554</v>
       </c>
       <c r="B1555" s="5" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="C1555" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1555" s="5" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="E1555" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1555" s="24">
         <v>44071</v>
@@ -76933,7 +76873,7 @@
         <v>17</v>
       </c>
       <c r="I1555" s="26" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="J1555" s="20" t="str">
         <f ca="1" t="shared" ref="J1555:J1611" si="96">IF(G1555="长期有效","长期有效",IF(TODAY()&gt;G1555,"过期",IF(G1555-TODAY()&lt;=180,G1555-TODAY(),"正常")))</f>
@@ -76956,16 +76896,16 @@
         <v>1555</v>
       </c>
       <c r="B1556" s="5" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="C1556" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1556" s="5" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="E1556" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1556" s="24">
         <v>44064</v>
@@ -76998,16 +76938,16 @@
         <v>1556</v>
       </c>
       <c r="B1557" s="5" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="C1557" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1557" s="5" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="E1557" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1557" s="24">
         <v>44071</v>
@@ -77040,16 +76980,16 @@
         <v>1557</v>
       </c>
       <c r="B1558" s="5" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="C1558" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1558" s="5" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="E1558" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1558" s="24">
         <v>44071</v>
@@ -77082,16 +77022,16 @@
         <v>1558</v>
       </c>
       <c r="B1559" s="5" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="C1559" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1559" s="5" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="E1559" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1559" s="24">
         <v>44071</v>
@@ -77124,16 +77064,16 @@
         <v>1559</v>
       </c>
       <c r="B1560" s="5" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="C1560" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D1560" s="5" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="E1560" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1560" s="24">
         <v>44104</v>
@@ -77168,7 +77108,7 @@
         <v>1560</v>
       </c>
       <c r="B1561" s="5" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="C1561" s="5" t="s">
         <v>14</v>
@@ -77177,7 +77117,7 @@
         <v>1353</v>
       </c>
       <c r="E1561" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1561" s="24">
         <v>44081</v>
@@ -77212,16 +77152,16 @@
         <v>1561</v>
       </c>
       <c r="B1562" s="5" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="C1562" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D1562" s="5" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="E1562" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1562" s="24">
         <v>44061</v>
@@ -77256,16 +77196,16 @@
         <v>1562</v>
       </c>
       <c r="B1563" s="5" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="C1563" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D1563" s="5" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="E1563" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1563" s="24">
         <v>44775</v>
@@ -77300,16 +77240,16 @@
         <v>1563</v>
       </c>
       <c r="B1564" s="5" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="C1564" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D1564" s="5" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="E1564" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1564" s="24">
         <v>44775</v>
@@ -77344,7 +77284,7 @@
         <v>1564</v>
       </c>
       <c r="B1565" s="5" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="C1565" s="5" t="s">
         <v>74</v>
@@ -77353,7 +77293,7 @@
         <v>1328</v>
       </c>
       <c r="E1565" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1565" s="24">
         <v>44048</v>
@@ -77386,7 +77326,7 @@
         <v>1565</v>
       </c>
       <c r="B1566" s="5" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="C1566" s="5" t="s">
         <v>74</v>
@@ -77395,7 +77335,7 @@
         <v>2103</v>
       </c>
       <c r="E1566" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1566" s="24">
         <v>44071</v>
@@ -77430,16 +77370,16 @@
         <v>1566</v>
       </c>
       <c r="B1567" s="5" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="C1567" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D1567" s="5" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="E1567" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1567" s="24">
         <v>44011</v>
@@ -77472,16 +77412,16 @@
         <v>1567</v>
       </c>
       <c r="B1568" s="5" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="C1568" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D1568" s="5" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="E1568" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1568" s="24">
         <v>44068</v>
@@ -77516,7 +77456,7 @@
         <v>1568</v>
       </c>
       <c r="B1569" s="5" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="C1569" s="5" t="s">
         <v>74</v>
@@ -77525,7 +77465,7 @@
         <v>2105</v>
       </c>
       <c r="E1569" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1569" s="24">
         <v>44071</v>
@@ -77560,7 +77500,7 @@
         <v>1569</v>
       </c>
       <c r="B1570" s="5" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="C1570" s="5" t="s">
         <v>74</v>
@@ -77569,7 +77509,7 @@
         <v>787</v>
       </c>
       <c r="E1570" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1570" s="24">
         <v>44036</v>
@@ -77604,7 +77544,7 @@
         <v>1570</v>
       </c>
       <c r="B1571" s="5" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="C1571" s="5" t="s">
         <v>74</v>
@@ -77613,7 +77553,7 @@
         <v>787</v>
       </c>
       <c r="E1571" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1571" s="24">
         <v>44006</v>
@@ -77648,7 +77588,7 @@
         <v>1571</v>
       </c>
       <c r="B1572" s="5" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="C1572" s="5" t="s">
         <v>74</v>
@@ -77657,7 +77597,7 @@
         <v>85</v>
       </c>
       <c r="E1572" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1572" s="24">
         <v>44036</v>
@@ -77692,7 +77632,7 @@
         <v>1572</v>
       </c>
       <c r="B1573" s="5" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="C1573" s="5" t="s">
         <v>74</v>
@@ -77701,7 +77641,7 @@
         <v>85</v>
       </c>
       <c r="E1573" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1573" s="24">
         <v>43984</v>
@@ -77736,16 +77676,16 @@
         <v>1573</v>
       </c>
       <c r="B1574" s="5" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="C1574" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D1574" s="5" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="E1574" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1574" s="24">
         <v>44015</v>
@@ -77772,7 +77712,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1574" s="19" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1575" ht="48.75" spans="1:13">
@@ -77780,16 +77720,16 @@
         <v>1574</v>
       </c>
       <c r="B1575" s="5" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="C1575" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D1575" s="5" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="E1575" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1575" s="24">
         <v>44015</v>
@@ -77816,7 +77756,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1575" s="19" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1576" ht="48.75" spans="1:13">
@@ -77824,16 +77764,16 @@
         <v>1575</v>
       </c>
       <c r="B1576" s="5" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="C1576" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D1576" s="5" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="E1576" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1576" s="24">
         <v>43976</v>
@@ -77860,7 +77800,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1576" s="19" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1577" ht="48.75" spans="1:13">
@@ -77868,16 +77808,16 @@
         <v>1576</v>
       </c>
       <c r="B1577" s="5" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="C1577" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D1577" s="5" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="E1577" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1577" s="24">
         <v>43976</v>
@@ -77904,7 +77844,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1577" s="19" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1578" ht="48.75" spans="1:13">
@@ -77912,7 +77852,7 @@
         <v>1577</v>
       </c>
       <c r="B1578" s="5" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="C1578" s="5" t="s">
         <v>97</v>
@@ -77921,7 +77861,7 @@
         <v>342</v>
       </c>
       <c r="E1578" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1578" s="24">
         <v>44056</v>
@@ -77954,16 +77894,16 @@
         <v>1578</v>
       </c>
       <c r="B1579" s="5" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="C1579" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1579" s="5" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="E1579" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1579" s="24">
         <v>44019</v>
@@ -77996,7 +77936,7 @@
         <v>1579</v>
       </c>
       <c r="B1580" s="5" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1580" s="5" t="s">
         <v>53</v>
@@ -78005,7 +77945,7 @@
         <v>654</v>
       </c>
       <c r="E1580" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1580" s="24">
         <v>44022</v>
@@ -78038,7 +77978,7 @@
         <v>1580</v>
       </c>
       <c r="B1581" s="5" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1581" s="5" t="s">
         <v>14</v>
@@ -78047,7 +77987,7 @@
         <v>110</v>
       </c>
       <c r="E1581" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1581" s="24">
         <v>44099</v>
@@ -78080,7 +78020,7 @@
         <v>1581</v>
       </c>
       <c r="B1582" s="5" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1582" s="5" t="s">
         <v>14</v>
@@ -78089,7 +78029,7 @@
         <v>914</v>
       </c>
       <c r="E1582" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1582" s="24">
         <v>44133</v>
@@ -78116,7 +78056,7 @@
         <v>过期</v>
       </c>
       <c r="M1582" s="19" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1583" ht="48.75" spans="1:13">
@@ -78124,16 +78064,16 @@
         <v>1582</v>
       </c>
       <c r="B1583" s="5" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="C1583" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D1583" s="5" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="E1583" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1583" s="24">
         <v>44070</v>
@@ -78168,16 +78108,16 @@
         <v>1583</v>
       </c>
       <c r="B1584" s="5" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="C1584" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D1584" s="5" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="E1584" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1584" s="24">
         <v>44076</v>
@@ -78212,16 +78152,16 @@
         <v>1584</v>
       </c>
       <c r="B1585" s="5" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="C1585" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D1585" s="12" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="E1585" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1585" s="24">
         <v>44398</v>
@@ -78256,16 +78196,16 @@
         <v>1585</v>
       </c>
       <c r="B1586" s="13" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="C1586" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D1586" s="27" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="E1586" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1586" s="10">
         <v>44440</v>
@@ -78292,7 +78232,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1586" s="19" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="1587" ht="84.75" spans="1:13">
@@ -78300,16 +78240,16 @@
         <v>1586</v>
       </c>
       <c r="B1587" s="13" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="C1587" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D1587" s="27" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="E1587" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1587" s="10">
         <v>44440</v>
@@ -78336,7 +78276,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1587" s="19" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="1588" ht="72.75" spans="1:13">
@@ -78344,7 +78284,7 @@
         <v>1587</v>
       </c>
       <c r="B1588" s="29" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="C1588" s="13" t="s">
         <v>141</v>
@@ -78353,7 +78293,7 @@
         <v>922</v>
       </c>
       <c r="E1588" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1588" s="64">
         <v>44434</v>
@@ -78380,7 +78320,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1588" s="13" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="1589" ht="48.75" spans="1:13">
@@ -78388,16 +78328,16 @@
         <v>1588</v>
       </c>
       <c r="B1589" s="13" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="C1589" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D1589" s="27" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="E1589" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1589" s="10">
         <v>44457</v>
@@ -78424,7 +78364,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1589" s="19" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1590" ht="48.75" spans="1:13">
@@ -78432,16 +78372,16 @@
         <v>1589</v>
       </c>
       <c r="B1590" s="27" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="C1590" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D1590" s="27" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="E1590" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1590" s="64">
         <v>44457</v>
@@ -78468,7 +78408,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1590" s="19" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1591" ht="108.75" spans="1:13">
@@ -78476,16 +78416,16 @@
         <v>1590</v>
       </c>
       <c r="B1591" s="13" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="C1591" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D1591" s="13" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="E1591" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1591" s="10">
         <v>44495</v>
@@ -78512,7 +78452,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1591" s="19" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="1592" ht="24.75" spans="1:13">
@@ -78520,7 +78460,7 @@
         <v>1591</v>
       </c>
       <c r="B1592" s="5" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="C1592" s="5" t="s">
         <v>14</v>
@@ -78529,7 +78469,7 @@
         <v>1181</v>
       </c>
       <c r="E1592" s="48" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1592" s="7">
         <v>44305</v>
@@ -78549,7 +78489,7 @@
       </c>
       <c r="K1592" s="21">
         <f ca="1" t="shared" si="97"/>
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="L1592" s="21" t="str">
         <f ca="1" t="shared" si="98"/>
@@ -78562,7 +78502,7 @@
         <v>1592</v>
       </c>
       <c r="B1593" s="5" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="C1593" s="5" t="s">
         <v>14</v>
@@ -78571,7 +78511,7 @@
         <v>1093</v>
       </c>
       <c r="E1593" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1593" s="7">
         <v>44564</v>
@@ -78591,7 +78531,7 @@
       </c>
       <c r="K1593" s="21">
         <f ca="1" t="shared" si="97"/>
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="L1593" s="21" t="str">
         <f ca="1" t="shared" si="98"/>
@@ -78604,16 +78544,16 @@
         <v>1593</v>
       </c>
       <c r="B1594" s="5" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="C1594" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D1594" s="27" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="E1594" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1594" s="7">
         <v>44613</v>
@@ -78646,7 +78586,7 @@
         <v>1594</v>
       </c>
       <c r="B1595" s="5" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="C1595" s="5" t="s">
         <v>38</v>
@@ -78655,7 +78595,7 @@
         <v>124</v>
       </c>
       <c r="E1595" s="48" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1595" s="7">
         <v>44613</v>
@@ -78688,7 +78628,7 @@
         <v>1595</v>
       </c>
       <c r="B1596" s="5" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="C1596" s="5" t="s">
         <v>14</v>
@@ -78697,7 +78637,7 @@
         <v>126</v>
       </c>
       <c r="E1596" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1596" s="7">
         <v>44623</v>
@@ -78730,7 +78670,7 @@
         <v>1596</v>
       </c>
       <c r="B1597" s="5" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="C1597" s="5" t="s">
         <v>118</v>
@@ -78739,7 +78679,7 @@
         <v>119</v>
       </c>
       <c r="E1597" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1597" s="7">
         <v>44623</v>
@@ -78772,7 +78712,7 @@
         <v>1597</v>
       </c>
       <c r="B1598" s="5" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="C1598" s="26" t="s">
         <v>14</v>
@@ -78781,7 +78721,7 @@
         <v>128</v>
       </c>
       <c r="E1598" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1598" s="7">
         <v>44631</v>
@@ -78814,7 +78754,7 @@
         <v>1598</v>
       </c>
       <c r="B1599" s="5" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="C1599" s="26" t="s">
         <v>14</v>
@@ -78823,7 +78763,7 @@
         <v>130</v>
       </c>
       <c r="E1599" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1599" s="7">
         <v>44631</v>
@@ -78856,7 +78796,7 @@
         <v>1599</v>
       </c>
       <c r="B1600" s="5" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="C1600" s="26" t="s">
         <v>14</v>
@@ -78865,7 +78805,7 @@
         <v>132</v>
       </c>
       <c r="E1600" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1600" s="7">
         <v>44645</v>
@@ -78898,16 +78838,16 @@
         <v>1600</v>
       </c>
       <c r="B1601" s="5" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="C1601" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D1601" s="13" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="E1601" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1601" s="7">
         <v>44764</v>
@@ -78940,7 +78880,7 @@
         <v>1601</v>
       </c>
       <c r="B1602" s="5" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="C1602" s="5" t="s">
         <v>22</v>
@@ -78949,7 +78889,7 @@
         <v>104</v>
       </c>
       <c r="E1602" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1602" s="7">
         <v>44711</v>
@@ -78982,7 +78922,7 @@
         <v>1602</v>
       </c>
       <c r="B1603" s="5" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="C1603" s="26" t="s">
         <v>14</v>
@@ -78991,7 +78931,7 @@
         <v>132</v>
       </c>
       <c r="E1603" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1603" s="7">
         <v>44645</v>
@@ -79024,16 +78964,16 @@
         <v>1603</v>
       </c>
       <c r="B1604" s="13" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="C1604" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D1604" s="13" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="E1604" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1604" s="10">
         <v>44827</v>
@@ -79068,7 +79008,7 @@
         <v>1604</v>
       </c>
       <c r="B1605" s="26" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="C1605" s="5" t="s">
         <v>14</v>
@@ -79077,7 +79017,7 @@
         <v>145</v>
       </c>
       <c r="E1605" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1605" s="7">
         <v>44847</v>
@@ -79112,7 +79052,7 @@
         <v>1605</v>
       </c>
       <c r="B1606" s="26" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="C1606" s="5" t="s">
         <v>14</v>
@@ -79121,7 +79061,7 @@
         <v>372</v>
       </c>
       <c r="E1606" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1606" s="7">
         <v>44847</v>
@@ -79156,7 +79096,7 @@
         <v>1606</v>
       </c>
       <c r="B1607" s="5" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="C1607" s="5" t="s">
         <v>22</v>
@@ -79165,7 +79105,7 @@
         <v>902</v>
       </c>
       <c r="E1607" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1607" s="7">
         <v>44847</v>
@@ -79198,7 +79138,7 @@
         <v>1607</v>
       </c>
       <c r="B1608" s="5" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="C1608" s="5" t="s">
         <v>22</v>
@@ -79207,7 +79147,7 @@
         <v>902</v>
       </c>
       <c r="E1608" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1608" s="7">
         <v>44939</v>
@@ -79240,16 +79180,16 @@
         <v>1608</v>
       </c>
       <c r="B1609" s="5" t="s">
+        <v>2430</v>
+      </c>
+      <c r="C1609" s="26" t="s">
         <v>2431</v>
-      </c>
-      <c r="C1609" s="26" t="s">
-        <v>2432</v>
       </c>
       <c r="D1609" s="5" t="s">
         <v>2198</v>
       </c>
       <c r="E1609" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1609" s="7">
         <v>45096</v>
@@ -79284,16 +79224,16 @@
         <v>1609</v>
       </c>
       <c r="B1610" s="5" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="C1610" s="26" t="s">
         <v>141</v>
       </c>
       <c r="D1610" s="5" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="E1610" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1610" s="7">
         <v>45096</v>
@@ -79326,7 +79266,7 @@
         <v>1610</v>
       </c>
       <c r="B1611" s="5" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="C1611" s="5" t="s">
         <v>22</v>
@@ -79335,7 +79275,7 @@
         <v>902</v>
       </c>
       <c r="E1611" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1611" s="7">
         <v>45373</v>
@@ -79368,16 +79308,16 @@
         <v>1611</v>
       </c>
       <c r="B1612" s="35" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C1612" s="34" t="s">
         <v>706</v>
       </c>
       <c r="D1612" s="35" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="E1612" s="34" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1612" s="38">
         <v>45380</v>
@@ -79407,16 +79347,16 @@
         <v>1612</v>
       </c>
       <c r="B1613" s="35" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="C1613" s="34" t="s">
         <v>991</v>
       </c>
       <c r="D1613" s="35" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="E1613" s="34" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1613" s="38">
         <v>45384</v>
@@ -79446,16 +79386,16 @@
         <v>1613</v>
       </c>
       <c r="B1614" s="35" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="C1614" s="34" t="s">
         <v>991</v>
       </c>
       <c r="D1614" s="35" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="E1614" s="34" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1614" s="38">
         <v>45384</v>
@@ -79480,12 +79420,12 @@
       </c>
       <c r="M1614" s="37"/>
     </row>
-    <row r="1615" ht="24.75" spans="1:13">
+    <row r="1615" spans="1:13">
       <c r="A1615" s="5">
         <v>1614</v>
       </c>
       <c r="B1615" s="5" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="C1615" s="5" t="s">
         <v>22</v>
@@ -79494,7 +79434,7 @@
         <v>413</v>
       </c>
       <c r="E1615" s="26" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1615" s="7">
         <v>44931</v>
@@ -79527,16 +79467,16 @@
         <v>1615</v>
       </c>
       <c r="B1616" s="5" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="C1616" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D1616" s="5" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="E1616" s="26" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1616" s="7">
         <v>44936</v>
@@ -79566,12 +79506,12 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="1617" ht="24.75" spans="1:13">
+    <row r="1617" spans="1:13">
       <c r="A1617" s="5">
         <v>1616</v>
       </c>
       <c r="B1617" s="5" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C1617" s="5" t="s">
         <v>22</v>
@@ -79580,7 +79520,7 @@
         <v>413</v>
       </c>
       <c r="E1617" s="26" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1617" s="7">
         <v>44936</v>
@@ -79615,7 +79555,7 @@
         <v>1617</v>
       </c>
       <c r="B1618" s="5" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="C1618" s="5" t="s">
         <v>22</v>
@@ -79624,7 +79564,7 @@
         <v>232</v>
       </c>
       <c r="E1618" s="26" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1618" s="7">
         <v>44939</v>
@@ -79657,7 +79597,7 @@
         <v>1618</v>
       </c>
       <c r="B1619" s="5" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="C1619" s="26" t="s">
         <v>14</v>
@@ -79666,7 +79606,7 @@
         <v>945</v>
       </c>
       <c r="E1619" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1619" s="7">
         <v>44956</v>
@@ -79696,21 +79636,21 @@
         <v>366</v>
       </c>
     </row>
-    <row r="1620" ht="24.75" spans="1:13">
+    <row r="1620" spans="1:13">
       <c r="A1620" s="5">
         <v>1619</v>
       </c>
       <c r="B1620" s="5" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="C1620" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D1620" s="5" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="E1620" s="26" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1620" s="7">
         <v>44984</v>
@@ -79743,7 +79683,7 @@
         <v>1620</v>
       </c>
       <c r="B1621" s="5" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="C1621" s="26" t="s">
         <v>14</v>
@@ -79752,7 +79692,7 @@
         <v>1630</v>
       </c>
       <c r="E1621" s="26" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1621" s="7">
         <v>44987</v>
@@ -79785,16 +79725,16 @@
         <v>1621</v>
       </c>
       <c r="B1622" s="5" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="C1622" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D1622" s="5" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E1622" s="26" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1622" s="7">
         <v>44987</v>
@@ -79827,7 +79767,7 @@
         <v>1622</v>
       </c>
       <c r="B1623" s="5" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="C1623" s="26" t="s">
         <v>991</v>
@@ -79836,7 +79776,7 @@
         <v>992</v>
       </c>
       <c r="E1623" s="26" t="s">
-        <v>2442</v>
+        <v>2453</v>
       </c>
       <c r="F1623" s="7">
         <v>44987</v>
@@ -79869,7 +79809,7 @@
         <v>1623</v>
       </c>
       <c r="B1624" s="5" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="C1624" s="26" t="s">
         <v>14</v>
@@ -79878,7 +79818,7 @@
         <v>1638</v>
       </c>
       <c r="E1624" s="26" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F1624" s="7">
         <v>44984</v>
@@ -79920,7 +79860,7 @@
         <v>1619</v>
       </c>
       <c r="E1625" s="26" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1625" s="7">
         <v>44925</v>
@@ -79962,7 +79902,7 @@
         <v>750</v>
       </c>
       <c r="E1626" s="26" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1626" s="7">
         <v>44992</v>
@@ -80004,7 +79944,7 @@
         <v>2457</v>
       </c>
       <c r="E1627" s="26" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1627" s="7">
         <v>45002</v>
@@ -80048,7 +79988,7 @@
         <v>2459</v>
       </c>
       <c r="E1628" s="26" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1628" s="7">
         <v>45002</v>
@@ -80092,7 +80032,7 @@
         <v>1012</v>
       </c>
       <c r="E1629" s="26" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1629" s="7">
         <v>45008</v>
@@ -80131,10 +80071,10 @@
         <v>2461</v>
       </c>
       <c r="D1630" s="5" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="E1630" s="26" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1630" s="7">
         <v>45089</v>
@@ -80176,7 +80116,7 @@
         <v>1621</v>
       </c>
       <c r="E1631" s="26" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1631" s="7">
         <v>45089</v>
@@ -80218,7 +80158,7 @@
         <v>2465</v>
       </c>
       <c r="E1632" s="26" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1632" s="7">
         <v>44645</v>
@@ -80254,13 +80194,13 @@
         <v>2466</v>
       </c>
       <c r="C1633" s="26" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="D1633" s="5" t="s">
         <v>2467</v>
       </c>
       <c r="E1633" s="26" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1633" s="7">
         <v>45138</v>
@@ -80298,13 +80238,13 @@
         <v>2468</v>
       </c>
       <c r="C1634" s="34" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="D1634" s="35" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="E1634" s="34" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1634" s="38">
         <v>45393</v>
@@ -80342,10 +80282,10 @@
         <v>22</v>
       </c>
       <c r="D1635" s="5" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="E1635" s="26" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1635" s="7">
         <v>44936</v>
@@ -80373,7 +80313,7 @@
       </c>
       <c r="M1635" s="19"/>
     </row>
-    <row r="1636" ht="24.75" spans="1:13">
+    <row r="1636" spans="1:13">
       <c r="A1636" s="5">
         <v>1635</v>
       </c>
@@ -80387,7 +80327,7 @@
         <v>413</v>
       </c>
       <c r="E1636" s="84" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1636" s="31">
         <v>44936</v>
@@ -80429,7 +80369,7 @@
         <v>230</v>
       </c>
       <c r="E1637" s="47" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1637" s="16">
         <v>44939</v>
@@ -80471,7 +80411,7 @@
         <v>543</v>
       </c>
       <c r="E1638" s="37" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1638" s="39">
         <v>45401</v>
@@ -80510,7 +80450,7 @@
         <v>23</v>
       </c>
       <c r="E1639" s="44" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F1639" s="64">
         <v>45097</v>
@@ -80591,7 +80531,7 @@
         <v>991</v>
       </c>
       <c r="D1641" s="27" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="E1641" s="44" t="s">
         <v>2475</v>
@@ -80633,7 +80573,7 @@
         <v>991</v>
       </c>
       <c r="D1642" s="27" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="E1642" s="44" t="s">
         <v>2475</v>
@@ -80664,7 +80604,7 @@
       </c>
       <c r="M1642" s="19"/>
     </row>
-    <row r="1643" ht="24.75" spans="1:13">
+    <row r="1643" spans="1:13">
       <c r="A1643" s="5">
         <v>1642</v>
       </c>
@@ -80678,7 +80618,7 @@
         <v>2480</v>
       </c>
       <c r="E1643" s="103" t="s">
-        <v>2481</v>
+        <v>2475</v>
       </c>
       <c r="F1643" s="39">
         <v>45373</v>
@@ -80708,13 +80648,13 @@
         <v>1643</v>
       </c>
       <c r="B1644" s="13" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="C1644" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D1644" s="27" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="E1644" s="44" t="s">
         <v>2475</v>
@@ -80745,12 +80685,12 @@
       </c>
       <c r="M1644" s="19"/>
     </row>
-    <row r="1645" ht="24.75" spans="1:13">
+    <row r="1645" spans="1:13">
       <c r="A1645" s="5">
         <v>1644</v>
       </c>
       <c r="B1645" s="37" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="C1645" s="35" t="s">
         <v>22</v>
@@ -80759,7 +80699,7 @@
         <v>311</v>
       </c>
       <c r="E1645" s="103" t="s">
-        <v>2481</v>
+        <v>2475</v>
       </c>
       <c r="F1645" s="104">
         <v>45376</v>
@@ -80789,7 +80729,7 @@
         <v>1645</v>
       </c>
       <c r="B1646" s="13" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="C1646" s="5" t="s">
         <v>118</v>
@@ -80831,7 +80771,7 @@
         <v>1646</v>
       </c>
       <c r="B1647" s="13" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="C1647" s="5" t="s">
         <v>706</v>
@@ -80875,16 +80815,16 @@
         <v>1647</v>
       </c>
       <c r="B1648" s="35" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="C1648" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D1648" s="35" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="E1648" s="105" t="s">
-        <v>2481</v>
+        <v>2475</v>
       </c>
       <c r="F1648" s="104">
         <v>45373</v>
@@ -80911,12 +80851,12 @@
       </c>
       <c r="M1648" s="52"/>
     </row>
-    <row r="1649" ht="24.75" spans="1:13">
+    <row r="1649" spans="1:13">
       <c r="A1649" s="5">
         <v>1648</v>
       </c>
       <c r="B1649" s="35" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="C1649" s="35" t="s">
         <v>14</v>
@@ -80957,13 +80897,13 @@
         <v>1649</v>
       </c>
       <c r="B1650" s="35" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="C1650" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D1650" s="35" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="E1650" s="105" t="s">
         <v>2475</v>
@@ -80991,12 +80931,12 @@
       </c>
       <c r="M1650" s="52"/>
     </row>
-    <row r="1651" ht="24.75" spans="1:13">
+    <row r="1651" spans="1:13">
       <c r="A1651" s="5">
         <v>1650</v>
       </c>
       <c r="B1651" s="35" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="C1651" s="35" t="s">
         <v>14</v>
@@ -81005,7 +80945,7 @@
         <v>128</v>
       </c>
       <c r="E1651" s="105" t="s">
-        <v>2481</v>
+        <v>2475</v>
       </c>
       <c r="F1651" s="104">
         <v>45394</v>
@@ -81035,7 +80975,7 @@
         <v>1651</v>
       </c>
       <c r="B1652" s="35" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="C1652" s="35" t="s">
         <v>14</v>
@@ -81076,16 +81016,16 @@
         <v>1652</v>
       </c>
       <c r="B1653" s="37" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="C1653" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D1653" s="37" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="E1653" s="39" t="s">
-        <v>2481</v>
+        <v>2475</v>
       </c>
       <c r="F1653" s="39">
         <v>45378</v>
@@ -81115,16 +81055,16 @@
         <v>1653</v>
       </c>
       <c r="B1654" s="5" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="C1654" s="26" t="s">
         <v>74</v>
       </c>
       <c r="D1654" s="5" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E1654" s="64" t="s">
         <v>2497</v>
-      </c>
-      <c r="E1654" s="64" t="s">
-        <v>2498</v>
       </c>
       <c r="F1654" s="64">
         <v>44286</v>
@@ -81151,7 +81091,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1654" s="19" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1655" ht="24.75" spans="1:13">
@@ -81159,16 +81099,16 @@
         <v>1654</v>
       </c>
       <c r="B1655" s="5" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="C1655" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1655" s="5" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="E1655" s="64" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1655" s="46">
         <v>44285</v>
@@ -81203,16 +81143,16 @@
         <v>1655</v>
       </c>
       <c r="B1656" s="5" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="C1656" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1656" s="26" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="E1656" s="10" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1656" s="16">
         <v>44284</v>
@@ -81245,7 +81185,7 @@
         <v>1656</v>
       </c>
       <c r="B1657" s="5" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="C1657" s="5" t="s">
         <v>74</v>
@@ -81254,7 +81194,7 @@
         <v>2092</v>
       </c>
       <c r="E1657" s="13" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1657" s="10">
         <v>44284</v>
@@ -81287,16 +81227,16 @@
         <v>1657</v>
       </c>
       <c r="B1658" s="5" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="C1658" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1658" s="26" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="E1658" s="13" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1658" s="10">
         <v>44336</v>
@@ -81323,7 +81263,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1658" s="19" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="1659" ht="132.75" spans="1:13">
@@ -81331,16 +81271,16 @@
         <v>1658</v>
       </c>
       <c r="B1659" s="5" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="C1659" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1659" s="26" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="E1659" s="13" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1659" s="10">
         <v>44336</v>
@@ -81367,7 +81307,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1659" s="19" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="1660" ht="36.75" spans="1:13">
@@ -81375,7 +81315,7 @@
         <v>1659</v>
       </c>
       <c r="B1660" s="5" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="C1660" s="5" t="s">
         <v>74</v>
@@ -81384,7 +81324,7 @@
         <v>2103</v>
       </c>
       <c r="E1660" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1660" s="24">
         <v>44286</v>
@@ -81396,7 +81336,7 @@
         <v>17</v>
       </c>
       <c r="I1660" s="26" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="J1660" s="20" t="str">
         <f ca="1" t="shared" si="111"/>
@@ -81417,7 +81357,7 @@
         <v>1660</v>
       </c>
       <c r="B1661" s="5" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="C1661" s="5" t="s">
         <v>74</v>
@@ -81426,7 +81366,7 @@
         <v>2103</v>
       </c>
       <c r="E1661" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1661" s="24">
         <v>44286</v>
@@ -81459,7 +81399,7 @@
         <v>1661</v>
       </c>
       <c r="B1662" s="5" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="C1662" s="5" t="s">
         <v>74</v>
@@ -81468,7 +81408,7 @@
         <v>2105</v>
       </c>
       <c r="E1662" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1662" s="24">
         <v>44286</v>
@@ -81480,7 +81420,7 @@
         <v>17</v>
       </c>
       <c r="I1662" s="26" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="J1662" s="20" t="str">
         <f ca="1" t="shared" si="111"/>
@@ -81503,16 +81443,16 @@
         <v>1662</v>
       </c>
       <c r="B1663" s="5" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="C1663" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1663" s="5" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="E1663" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1663" s="24">
         <v>44286</v>
@@ -81545,7 +81485,7 @@
         <v>1663</v>
       </c>
       <c r="B1664" s="5" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="C1664" s="5" t="s">
         <v>74</v>
@@ -81554,7 +81494,7 @@
         <v>2109</v>
       </c>
       <c r="E1664" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1664" s="24">
         <v>44286</v>
@@ -81587,7 +81527,7 @@
         <v>1664</v>
       </c>
       <c r="B1665" s="5" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="C1665" s="5" t="s">
         <v>74</v>
@@ -81596,7 +81536,7 @@
         <v>2112</v>
       </c>
       <c r="E1665" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1665" s="24">
         <v>44286</v>
@@ -81629,7 +81569,7 @@
         <v>1665</v>
       </c>
       <c r="B1666" s="5" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="C1666" s="5" t="s">
         <v>74</v>
@@ -81638,7 +81578,7 @@
         <v>2103</v>
       </c>
       <c r="E1666" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1666" s="24">
         <v>44286</v>
@@ -81650,7 +81590,7 @@
         <v>17</v>
       </c>
       <c r="I1666" s="26" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="J1666" s="20" t="str">
         <f ca="1" t="shared" si="111"/>
@@ -81671,16 +81611,16 @@
         <v>1666</v>
       </c>
       <c r="B1667" s="5" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="C1667" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1667" s="5" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="E1667" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1667" s="24">
         <v>44286</v>
@@ -81715,16 +81655,16 @@
         <v>1667</v>
       </c>
       <c r="B1668" s="5" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="C1668" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1668" s="5" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="E1668" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1668" s="24">
         <v>44286</v>
@@ -81759,16 +81699,16 @@
         <v>1668</v>
       </c>
       <c r="B1669" s="5" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="C1669" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1669" s="5" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="E1669" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1669" s="24">
         <v>44286</v>
@@ -81803,7 +81743,7 @@
         <v>1669</v>
       </c>
       <c r="B1670" s="5" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="C1670" s="5" t="s">
         <v>74</v>
@@ -81812,7 +81752,7 @@
         <v>2103</v>
       </c>
       <c r="E1670" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1670" s="24">
         <v>44284</v>
@@ -81847,7 +81787,7 @@
         <v>1670</v>
       </c>
       <c r="B1671" s="5" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="C1671" s="5" t="s">
         <v>74</v>
@@ -81856,7 +81796,7 @@
         <v>184</v>
       </c>
       <c r="E1671" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1671" s="24">
         <v>44286</v>
@@ -81891,7 +81831,7 @@
         <v>1671</v>
       </c>
       <c r="B1672" s="5" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="C1672" s="5" t="s">
         <v>74</v>
@@ -81900,7 +81840,7 @@
         <v>235</v>
       </c>
       <c r="E1672" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1672" s="24">
         <v>44286</v>
@@ -81933,7 +81873,7 @@
         <v>1672</v>
       </c>
       <c r="B1673" s="5" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="C1673" s="5" t="s">
         <v>74</v>
@@ -81942,7 +81882,7 @@
         <v>2105</v>
       </c>
       <c r="E1673" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1673" s="24">
         <v>44284</v>
@@ -81977,16 +81917,16 @@
         <v>1673</v>
       </c>
       <c r="B1674" s="5" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="C1674" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1674" s="5" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="E1674" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1674" s="24">
         <v>44335</v>
@@ -82013,7 +81953,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1674" s="19" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1675" ht="24.75" spans="1:13">
@@ -82021,16 +81961,16 @@
         <v>1674</v>
       </c>
       <c r="B1675" s="5" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="C1675" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1675" s="5" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="E1675" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1675" s="24">
         <v>44337</v>
@@ -82057,7 +81997,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1675" s="19" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="1676" ht="84.75" spans="1:13">
@@ -82065,16 +82005,16 @@
         <v>1675</v>
       </c>
       <c r="B1676" s="5" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="C1676" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1676" s="5" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="E1676" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1676" s="24">
         <v>44286</v>
@@ -82109,16 +82049,16 @@
         <v>1676</v>
       </c>
       <c r="B1677" s="5" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="C1677" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1677" s="5" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="E1677" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1677" s="24">
         <v>44286</v>
@@ -82153,16 +82093,16 @@
         <v>1677</v>
       </c>
       <c r="B1678" s="5" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="C1678" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1678" s="5" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="E1678" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1678" s="24">
         <v>44379</v>
@@ -82197,7 +82137,7 @@
         <v>1678</v>
       </c>
       <c r="B1679" s="5" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="C1679" s="5" t="s">
         <v>74</v>
@@ -82206,7 +82146,7 @@
         <v>787</v>
       </c>
       <c r="E1679" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1679" s="24">
         <v>44369</v>
@@ -82241,7 +82181,7 @@
         <v>1679</v>
       </c>
       <c r="B1680" s="5" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="C1680" s="5" t="s">
         <v>74</v>
@@ -82250,7 +82190,7 @@
         <v>639</v>
       </c>
       <c r="E1680" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1680" s="24">
         <v>44369</v>
@@ -82285,16 +82225,16 @@
         <v>1680</v>
       </c>
       <c r="B1681" s="5" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="C1681" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1681" s="5" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="E1681" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1681" s="24">
         <v>44286</v>
@@ -82327,7 +82267,7 @@
         <v>1681</v>
       </c>
       <c r="B1682" s="13" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="C1682" s="5" t="s">
         <v>74</v>
@@ -82336,7 +82276,7 @@
         <v>914</v>
       </c>
       <c r="E1682" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1682" s="24">
         <v>44286</v>
@@ -82369,16 +82309,16 @@
         <v>1682</v>
       </c>
       <c r="B1683" s="13" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="C1683" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D1683" s="27" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="E1683" s="5" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1683" s="24">
         <v>44495</v>
@@ -82405,7 +82345,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1683" s="19" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="1684" ht="24.75" spans="1:13">
@@ -82413,7 +82353,7 @@
         <v>1683</v>
       </c>
       <c r="B1684" s="27" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="C1684" s="45" t="s">
         <v>22</v>
@@ -82422,7 +82362,7 @@
         <v>104</v>
       </c>
       <c r="E1684" s="30" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1684" s="60">
         <v>44575</v>
@@ -82455,7 +82395,7 @@
         <v>1684</v>
       </c>
       <c r="B1685" s="13" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="C1685" s="41" t="s">
         <v>14</v>
@@ -82464,7 +82404,7 @@
         <v>126</v>
       </c>
       <c r="E1685" s="13" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1685" s="10">
         <v>44627</v>
@@ -82497,16 +82437,16 @@
         <v>1685</v>
       </c>
       <c r="B1686" s="13" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="C1686" s="41" t="s">
         <v>151</v>
       </c>
       <c r="D1686" s="13" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="E1686" s="13" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1686" s="16">
         <v>44665</v>
@@ -82539,7 +82479,7 @@
         <v>1686</v>
       </c>
       <c r="B1687" s="13" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="C1687" s="41" t="s">
         <v>118</v>
@@ -82548,7 +82488,7 @@
         <v>119</v>
       </c>
       <c r="E1687" s="47" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1687" s="10">
         <v>44679</v>
@@ -82581,16 +82521,16 @@
         <v>1687</v>
       </c>
       <c r="B1688" s="29" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="C1688" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D1688" s="13" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="E1688" s="47" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1688" s="10">
         <v>44827</v>
@@ -82625,7 +82565,7 @@
         <v>1688</v>
       </c>
       <c r="B1689" s="13" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="C1689" s="26" t="s">
         <v>14</v>
@@ -82634,7 +82574,7 @@
         <v>937</v>
       </c>
       <c r="E1689" s="47" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1689" s="10">
         <v>44827</v>
@@ -82669,7 +82609,7 @@
         <v>1689</v>
       </c>
       <c r="B1690" s="5" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="C1690" s="5" t="s">
         <v>22</v>
@@ -82678,7 +82618,7 @@
         <v>902</v>
       </c>
       <c r="E1690" s="47" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1690" s="24">
         <v>44848</v>
@@ -82711,16 +82651,16 @@
         <v>1690</v>
       </c>
       <c r="B1691" s="5" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="C1691" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D1691" s="5" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="E1691" s="47" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F1691" s="24">
         <v>45013</v>
@@ -82751,16 +82691,16 @@
         <v>1691</v>
       </c>
       <c r="B1692" s="5" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="C1692" s="26" t="s">
         <v>151</v>
       </c>
       <c r="D1692" s="5" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E1692" s="28" t="s">
         <v>2555</v>
-      </c>
-      <c r="E1692" s="28" t="s">
-        <v>2556</v>
       </c>
       <c r="F1692" s="24">
         <v>42712</v>
@@ -82795,7 +82735,7 @@
         <v>1692</v>
       </c>
       <c r="B1693" s="5" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="C1693" s="5" t="s">
         <v>14</v>
@@ -82804,7 +82744,7 @@
         <v>394</v>
       </c>
       <c r="E1693" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1693" s="24">
         <v>44252</v>
@@ -82839,7 +82779,7 @@
         <v>1693</v>
       </c>
       <c r="B1694" s="5" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="C1694" s="5" t="s">
         <v>22</v>
@@ -82848,7 +82788,7 @@
         <v>2086</v>
       </c>
       <c r="E1694" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1694" s="24">
         <v>44089</v>
@@ -82883,16 +82823,16 @@
         <v>1694</v>
       </c>
       <c r="B1695" s="5" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="C1695" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D1695" s="5" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="E1695" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1695" s="24">
         <v>42703</v>
@@ -82919,7 +82859,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1695" s="19" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="1696" ht="14.55" spans="1:13">
@@ -82927,7 +82867,7 @@
         <v>1695</v>
       </c>
       <c r="B1696" s="5" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="C1696" s="5" t="s">
         <v>14</v>
@@ -82936,7 +82876,7 @@
         <v>311</v>
       </c>
       <c r="E1696" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1696" s="24">
         <v>44313</v>
@@ -82969,16 +82909,16 @@
         <v>1696</v>
       </c>
       <c r="B1697" s="5" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="C1697" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1697" s="5" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="E1697" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1697" s="24">
         <v>44102</v>
@@ -83013,16 +82953,16 @@
         <v>1697</v>
       </c>
       <c r="B1698" s="5" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="C1698" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1698" s="5" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="E1698" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1698" s="24">
         <v>43557</v>
@@ -83057,16 +82997,16 @@
         <v>1698</v>
       </c>
       <c r="B1699" s="5" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="C1699" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1699" s="5" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="E1699" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1699" s="24">
         <v>43557</v>
@@ -83101,16 +83041,16 @@
         <v>1699</v>
       </c>
       <c r="B1700" s="5" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="C1700" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1700" s="5" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="E1700" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1700" s="24">
         <v>43557</v>
@@ -83145,16 +83085,16 @@
         <v>1700</v>
       </c>
       <c r="B1701" s="5" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="C1701" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1701" s="5" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="E1701" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1701" s="24">
         <v>42681</v>
@@ -83189,7 +83129,7 @@
         <v>1701</v>
       </c>
       <c r="B1702" s="5" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="C1702" s="5" t="s">
         <v>22</v>
@@ -83198,7 +83138,7 @@
         <v>626</v>
       </c>
       <c r="E1702" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1702" s="24">
         <v>44074</v>
@@ -83231,7 +83171,7 @@
         <v>1702</v>
       </c>
       <c r="B1703" s="5" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="C1703" s="5" t="s">
         <v>22</v>
@@ -83240,7 +83180,7 @@
         <v>626</v>
       </c>
       <c r="E1703" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1703" s="24">
         <v>44074</v>
@@ -83273,7 +83213,7 @@
         <v>1703</v>
       </c>
       <c r="B1704" s="5" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="C1704" s="5" t="s">
         <v>22</v>
@@ -83282,7 +83222,7 @@
         <v>188</v>
       </c>
       <c r="E1704" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1704" s="24">
         <v>43564</v>
@@ -83317,7 +83257,7 @@
         <v>1704</v>
       </c>
       <c r="B1705" s="12" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="C1705" s="12" t="s">
         <v>74</v>
@@ -83326,7 +83266,7 @@
         <v>85</v>
       </c>
       <c r="E1705" s="12" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1705" s="60">
         <v>44334</v>
@@ -83361,7 +83301,7 @@
         <v>1705</v>
       </c>
       <c r="B1706" s="13" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="C1706" s="13" t="s">
         <v>74</v>
@@ -83370,7 +83310,7 @@
         <v>85</v>
       </c>
       <c r="E1706" s="13" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1706" s="10">
         <v>44025</v>
@@ -83405,7 +83345,7 @@
         <v>1706</v>
       </c>
       <c r="B1707" s="5" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="C1707" s="5" t="s">
         <v>74</v>
@@ -83414,7 +83354,7 @@
         <v>85</v>
       </c>
       <c r="E1707" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1707" s="24">
         <v>44134</v>
@@ -83449,7 +83389,7 @@
         <v>1707</v>
       </c>
       <c r="B1708" s="5" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="C1708" s="5" t="s">
         <v>74</v>
@@ -83458,7 +83398,7 @@
         <v>85</v>
       </c>
       <c r="E1708" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1708" s="24">
         <v>44248</v>
@@ -83493,16 +83433,16 @@
         <v>1708</v>
       </c>
       <c r="B1709" s="5" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="C1709" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1709" s="5" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="E1709" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1709" s="24">
         <v>43286</v>
@@ -83537,16 +83477,16 @@
         <v>1709</v>
       </c>
       <c r="B1710" s="5" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C1710" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1710" s="5" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="E1710" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1710" s="24">
         <v>42916</v>
@@ -83581,16 +83521,16 @@
         <v>1710</v>
       </c>
       <c r="B1711" s="5" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="C1711" s="5" t="s">
         <v>439</v>
       </c>
       <c r="D1711" s="5" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="E1711" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1711" s="24">
         <v>42693</v>
@@ -83623,16 +83563,16 @@
         <v>1711</v>
       </c>
       <c r="B1712" s="5" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="C1712" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D1712" s="5" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="E1712" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1712" s="24">
         <v>42761</v>
@@ -83667,16 +83607,16 @@
         <v>1712</v>
       </c>
       <c r="B1713" s="5" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="C1713" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D1713" s="5" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="E1713" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1713" s="24">
         <v>42692</v>
@@ -83703,7 +83643,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1713" s="19" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1714" ht="24.75" spans="1:13">
@@ -83711,7 +83651,7 @@
         <v>1713</v>
       </c>
       <c r="B1714" s="5" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="C1714" s="5" t="s">
         <v>22</v>
@@ -83720,7 +83660,7 @@
         <v>683</v>
       </c>
       <c r="E1714" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1714" s="24">
         <v>42692</v>
@@ -83753,16 +83693,16 @@
         <v>1714</v>
       </c>
       <c r="B1715" s="5" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="C1715" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D1715" s="5" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="E1715" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1715" s="24">
         <v>42692</v>
@@ -83795,7 +83735,7 @@
         <v>1715</v>
       </c>
       <c r="B1716" s="5" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="C1716" s="5" t="s">
         <v>22</v>
@@ -83804,7 +83744,7 @@
         <v>114</v>
       </c>
       <c r="E1716" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1716" s="24">
         <v>43706</v>
@@ -83839,7 +83779,7 @@
         <v>1716</v>
       </c>
       <c r="B1717" s="12" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="C1717" s="12" t="s">
         <v>22</v>
@@ -83848,7 +83788,7 @@
         <v>666</v>
       </c>
       <c r="E1717" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1717" s="60">
         <v>42670</v>
@@ -83883,16 +83823,16 @@
         <v>1717</v>
       </c>
       <c r="B1718" s="27" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="C1718" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D1718" s="27" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="E1718" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1718" s="64">
         <v>43574</v>
@@ -83927,7 +83867,7 @@
         <v>1718</v>
       </c>
       <c r="B1719" s="27" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="C1719" s="27" t="s">
         <v>14</v>
@@ -83936,7 +83876,7 @@
         <v>126</v>
       </c>
       <c r="E1719" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1719" s="64">
         <v>44608</v>
@@ -83969,7 +83909,7 @@
         <v>1719</v>
       </c>
       <c r="B1720" s="27" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="C1720" s="27" t="s">
         <v>118</v>
@@ -83978,7 +83918,7 @@
         <v>119</v>
       </c>
       <c r="E1720" s="5" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1720" s="64">
         <v>44623</v>
@@ -84011,7 +83951,7 @@
         <v>1720</v>
       </c>
       <c r="B1721" s="27" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="C1721" s="27" t="s">
         <v>14</v>
@@ -84020,7 +83960,7 @@
         <v>128</v>
       </c>
       <c r="E1721" s="12" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1721" s="64">
         <v>44635</v>
@@ -84053,7 +83993,7 @@
         <v>1721</v>
       </c>
       <c r="B1722" s="13" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="C1722" s="13" t="s">
         <v>14</v>
@@ -84062,7 +84002,7 @@
         <v>130</v>
       </c>
       <c r="E1722" s="13" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1722" s="10">
         <v>44635</v>
@@ -84095,16 +84035,16 @@
         <v>1722</v>
       </c>
       <c r="B1723" s="13" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="C1723" s="13" t="s">
         <v>151</v>
       </c>
       <c r="D1723" s="13" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="E1723" s="13" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1723" s="10">
         <v>44645</v>
@@ -84137,7 +84077,7 @@
         <v>1723</v>
       </c>
       <c r="B1724" s="13" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="C1724" s="13" t="s">
         <v>22</v>
@@ -84146,7 +84086,7 @@
         <v>139</v>
       </c>
       <c r="E1724" s="13" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1724" s="70">
         <v>44803</v>
@@ -84181,7 +84121,7 @@
         <v>1724</v>
       </c>
       <c r="B1725" s="13" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="C1725" s="13" t="s">
         <v>22</v>
@@ -84190,7 +84130,7 @@
         <v>145</v>
       </c>
       <c r="E1725" s="13" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1725" s="70">
         <v>44869</v>
@@ -84225,7 +84165,7 @@
         <v>1725</v>
       </c>
       <c r="B1726" s="13" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="C1726" s="13" t="s">
         <v>22</v>
@@ -84234,7 +84174,7 @@
         <v>750</v>
       </c>
       <c r="E1726" s="13" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F1726" s="70">
         <v>44939</v>
@@ -84267,16 +84207,16 @@
         <v>1726</v>
       </c>
       <c r="B1727" s="13" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="C1727" s="13" t="s">
         <v>998</v>
       </c>
       <c r="D1727" s="13" t="s">
+        <v>2602</v>
+      </c>
+      <c r="E1727" s="13" t="s">
         <v>2603</v>
-      </c>
-      <c r="E1727" s="13" t="s">
-        <v>2604</v>
       </c>
       <c r="F1727" s="70">
         <v>44825</v>
@@ -84309,16 +84249,16 @@
         <v>1727</v>
       </c>
       <c r="B1728" s="13" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="C1728" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D1728" s="13" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="E1728" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1728" s="70">
         <v>44827</v>
@@ -84345,7 +84285,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1728" s="19" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1729" ht="48.75" spans="1:13">
@@ -84353,16 +84293,16 @@
         <v>1728</v>
       </c>
       <c r="B1729" s="13" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="C1729" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D1729" s="13" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="E1729" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1729" s="70">
         <v>44680</v>
@@ -84397,7 +84337,7 @@
         <v>1729</v>
       </c>
       <c r="B1730" s="13" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="C1730" s="13" t="s">
         <v>22</v>
@@ -84406,7 +84346,7 @@
         <v>311</v>
       </c>
       <c r="E1730" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1730" s="70">
         <v>44713</v>
@@ -84439,7 +84379,7 @@
         <v>1730</v>
       </c>
       <c r="B1731" s="13" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="C1731" s="13" t="s">
         <v>22</v>
@@ -84448,7 +84388,7 @@
         <v>311</v>
       </c>
       <c r="E1731" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1731" s="70">
         <v>44771</v>
@@ -84483,7 +84423,7 @@
         <v>1731</v>
       </c>
       <c r="B1732" s="13" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="C1732" s="13" t="s">
         <v>22</v>
@@ -84492,7 +84432,7 @@
         <v>95</v>
       </c>
       <c r="E1732" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1732" s="70">
         <v>44806</v>
@@ -84525,16 +84465,16 @@
         <v>1732</v>
       </c>
       <c r="B1733" s="13" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="C1733" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D1733" s="13" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="E1733" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1733" s="70">
         <v>44900</v>
@@ -84567,7 +84507,7 @@
         <v>1733</v>
       </c>
       <c r="B1734" s="13" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="C1734" s="13" t="s">
         <v>22</v>
@@ -84576,7 +84516,7 @@
         <v>95</v>
       </c>
       <c r="E1734" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1734" s="70">
         <v>44719</v>
@@ -84609,16 +84549,16 @@
         <v>1734</v>
       </c>
       <c r="B1735" s="13" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="C1735" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D1735" s="13" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="E1735" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1735" s="70">
         <v>44725</v>
@@ -84653,7 +84593,7 @@
         <v>1735</v>
       </c>
       <c r="B1736" s="13" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="C1736" s="13" t="s">
         <v>22</v>
@@ -84662,7 +84602,7 @@
         <v>139</v>
       </c>
       <c r="E1736" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1736" s="70">
         <v>44771</v>
@@ -84697,7 +84637,7 @@
         <v>1736</v>
       </c>
       <c r="B1737" s="13" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="C1737" s="13" t="s">
         <v>22</v>
@@ -84706,7 +84646,7 @@
         <v>365</v>
       </c>
       <c r="E1737" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1737" s="70">
         <v>44771</v>
@@ -84741,7 +84681,7 @@
         <v>1737</v>
       </c>
       <c r="B1738" s="13" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="C1738" s="13" t="s">
         <v>22</v>
@@ -84750,7 +84690,7 @@
         <v>1110</v>
       </c>
       <c r="E1738" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1738" s="70">
         <v>44767</v>
@@ -84785,16 +84725,16 @@
         <v>1738</v>
       </c>
       <c r="B1739" s="13" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="C1739" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D1739" s="13" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="E1739" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1739" s="70">
         <v>44777</v>
@@ -84827,16 +84767,16 @@
         <v>1739</v>
       </c>
       <c r="B1740" s="13" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="C1740" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D1740" s="13" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="E1740" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1740" s="70">
         <v>44777</v>
@@ -84869,7 +84809,7 @@
         <v>1740</v>
       </c>
       <c r="B1741" s="13" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="C1741" s="13" t="s">
         <v>22</v>
@@ -84878,7 +84818,7 @@
         <v>1708</v>
       </c>
       <c r="E1741" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1741" s="70">
         <v>44797</v>
@@ -84911,7 +84851,7 @@
         <v>1741</v>
       </c>
       <c r="B1742" s="13" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="C1742" s="13" t="s">
         <v>22</v>
@@ -84920,7 +84860,7 @@
         <v>2175</v>
       </c>
       <c r="E1742" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1742" s="10">
         <v>44827</v>
@@ -84953,7 +84893,7 @@
         <v>1742</v>
       </c>
       <c r="B1743" s="13" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="C1743" s="13" t="s">
         <v>22</v>
@@ -84962,7 +84902,7 @@
         <v>654</v>
       </c>
       <c r="E1743" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1743" s="70">
         <v>44830</v>
@@ -84995,16 +84935,16 @@
         <v>1743</v>
       </c>
       <c r="B1744" s="13" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="C1744" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D1744" s="13" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="E1744" s="42" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1744" s="10">
         <v>44847</v>
@@ -85037,7 +84977,7 @@
         <v>1744</v>
       </c>
       <c r="B1745" s="27" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="C1745" s="27" t="s">
         <v>22</v>
@@ -85046,7 +84986,7 @@
         <v>311</v>
       </c>
       <c r="E1745" s="27" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1745" s="64">
         <v>44847</v>
@@ -85079,16 +85019,16 @@
         <v>1745</v>
       </c>
       <c r="B1746" s="13" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C1746" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D1746" s="13" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="E1746" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1746" s="10">
         <v>44894</v>
@@ -85121,16 +85061,16 @@
         <v>1746</v>
       </c>
       <c r="B1747" s="13" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="C1747" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D1747" s="13" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="E1747" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1747" s="10">
         <v>44925</v>
@@ -85163,16 +85103,16 @@
         <v>1747</v>
       </c>
       <c r="B1748" s="27" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="C1748" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D1748" s="13" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="E1748" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1748" s="10">
         <v>44971</v>
@@ -85205,7 +85145,7 @@
         <v>1748</v>
       </c>
       <c r="B1749" s="13" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="C1749" s="13" t="s">
         <v>22</v>
@@ -85214,7 +85154,7 @@
         <v>750</v>
       </c>
       <c r="E1749" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1749" s="10">
         <v>44987</v>
@@ -85247,16 +85187,16 @@
         <v>1749</v>
       </c>
       <c r="B1750" s="13" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="C1750" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D1750" s="13" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="E1750" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1750" s="10">
         <v>44831</v>
@@ -85289,7 +85229,7 @@
         <v>1750</v>
       </c>
       <c r="B1751" s="13" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="C1751" s="21" t="s">
         <v>97</v>
@@ -85298,7 +85238,7 @@
         <v>2215</v>
       </c>
       <c r="E1751" s="41" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1751" s="10">
         <v>44929</v>
@@ -85331,7 +85271,7 @@
         <v>1751</v>
       </c>
       <c r="B1752" s="13" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="C1752" s="21" t="s">
         <v>97</v>
@@ -85340,7 +85280,7 @@
         <v>2134</v>
       </c>
       <c r="E1752" s="41" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1752" s="10">
         <v>44941</v>
@@ -85373,7 +85313,7 @@
         <v>1752</v>
       </c>
       <c r="B1753" s="13" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="C1753" s="13" t="s">
         <v>22</v>
@@ -85382,7 +85322,7 @@
         <v>145</v>
       </c>
       <c r="E1753" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1753" s="10">
         <v>44991</v>
@@ -85417,7 +85357,7 @@
         <v>1753</v>
       </c>
       <c r="B1754" s="27" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="C1754" s="13" t="s">
         <v>22</v>
@@ -85426,7 +85366,7 @@
         <v>372</v>
       </c>
       <c r="E1754" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1754" s="10">
         <v>44991</v>
@@ -85461,7 +85401,7 @@
         <v>1754</v>
       </c>
       <c r="B1755" s="27" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="C1755" s="13" t="s">
         <v>22</v>
@@ -85470,7 +85410,7 @@
         <v>413</v>
       </c>
       <c r="E1755" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1755" s="10">
         <v>45121</v>
@@ -85505,16 +85445,16 @@
         <v>1755</v>
       </c>
       <c r="B1756" s="27" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="C1756" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D1756" s="27" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="E1756" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1756" s="64">
         <v>45163</v>
@@ -85547,16 +85487,16 @@
         <v>1756</v>
       </c>
       <c r="B1757" s="109" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="C1757" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D1757" s="109" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="E1757" s="102" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1757" s="105">
         <v>45408</v>
@@ -85588,16 +85528,16 @@
         <v>1757</v>
       </c>
       <c r="B1758" s="109" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="C1758" s="37" t="s">
         <v>706</v>
       </c>
       <c r="D1758" s="109" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="E1758" s="102" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="F1758" s="105">
         <v>45457</v>
@@ -85627,16 +85567,16 @@
         <v>1758</v>
       </c>
       <c r="B1759" s="13" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="C1759" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D1759" s="13" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E1759" s="41" t="s">
         <v>2649</v>
-      </c>
-      <c r="E1759" s="41" t="s">
-        <v>2650</v>
       </c>
       <c r="F1759" s="10">
         <v>44870</v>
@@ -85669,16 +85609,16 @@
         <v>1759</v>
       </c>
       <c r="B1760" s="13" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="C1760" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D1760" s="13" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="E1760" s="41" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="F1760" s="10">
         <v>44900</v>
@@ -85711,16 +85651,16 @@
         <v>1760</v>
       </c>
       <c r="B1761" s="5" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="C1761" s="6" t="s">
         <v>1805</v>
       </c>
       <c r="D1761" s="5" t="s">
+        <v>2652</v>
+      </c>
+      <c r="E1761" s="5" t="s">
         <v>2653</v>
-      </c>
-      <c r="E1761" s="5" t="s">
-        <v>2654</v>
       </c>
       <c r="F1761" s="24">
         <v>44900</v>
@@ -85751,16 +85691,16 @@
         <v>1761</v>
       </c>
       <c r="B1762" s="13" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="C1762" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D1762" s="13" t="s">
+        <v>2655</v>
+      </c>
+      <c r="E1762" s="13" t="s">
         <v>2656</v>
-      </c>
-      <c r="E1762" s="13" t="s">
-        <v>2657</v>
       </c>
       <c r="F1762" s="10">
         <v>45125</v>
@@ -85791,13 +85731,13 @@
         <v>1762</v>
       </c>
       <c r="B1763" s="13" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="C1763" s="13" t="s">
         <v>1813</v>
       </c>
       <c r="D1763" s="13" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="E1763" s="13" t="s">
         <v>1920</v>
@@ -85833,13 +85773,13 @@
         <v>1763</v>
       </c>
       <c r="B1764" s="13" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="C1764" s="13" t="s">
         <v>1805</v>
       </c>
       <c r="D1764" s="13" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="E1764" s="13" t="s">
         <v>1920</v>
@@ -85875,7 +85815,7 @@
         <v>1764</v>
       </c>
       <c r="B1765" s="13" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="C1765" s="13" t="s">
         <v>1805</v>
@@ -85923,7 +85863,7 @@
         <v>1805</v>
       </c>
       <c r="D1766" s="27" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="E1766" s="66" t="s">
         <v>1920</v>
@@ -85959,7 +85899,7 @@
         <v>1766</v>
       </c>
       <c r="B1767" s="13" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="C1767" s="13" t="s">
         <v>1805</v>
@@ -86001,7 +85941,7 @@
         <v>1767</v>
       </c>
       <c r="B1768" s="13" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="C1768" s="13" t="s">
         <v>1813</v>
@@ -86043,16 +85983,16 @@
         <v>1768</v>
       </c>
       <c r="B1769" s="13" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="C1769" s="13" t="s">
         <v>1584</v>
       </c>
       <c r="D1769" s="13" t="s">
+        <v>2666</v>
+      </c>
+      <c r="E1769" s="13" t="s">
         <v>2667</v>
-      </c>
-      <c r="E1769" s="13" t="s">
-        <v>2668</v>
       </c>
       <c r="F1769" s="10">
         <v>45314</v>
@@ -86084,7 +86024,7 @@
         <v>1769</v>
       </c>
       <c r="B1770" s="13" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="C1770" s="13" t="s">
         <v>706</v>
@@ -86093,7 +86033,7 @@
         <v>1266</v>
       </c>
       <c r="E1770" s="13" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="F1770" s="10">
         <v>45226</v>
@@ -86113,7 +86053,7 @@
       </c>
       <c r="K1770" s="21">
         <f ca="1" t="shared" ref="K1770:K1787" si="120">IF(H1770="过期","过期",IF(H1770="长期有效","长期有效",IF(TODAY()&gt;H1770,"过期",IF(H1770-TODAY()&lt;=180,H1770-TODAY(),"正常"))))</f>
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="L1770" s="117" t="str">
         <f ca="1" t="shared" si="119"/>
@@ -86128,7 +86068,7 @@
         <v>1770</v>
       </c>
       <c r="B1771" s="13" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="C1771" s="13" t="s">
         <v>706</v>
@@ -86137,7 +86077,7 @@
         <v>1266</v>
       </c>
       <c r="E1771" s="13" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="F1771" s="10">
         <v>45243</v>
@@ -86157,7 +86097,7 @@
       </c>
       <c r="K1771" s="21">
         <f ca="1" t="shared" si="120"/>
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="L1771" s="117" t="str">
         <f ca="1" t="shared" si="119"/>
@@ -86172,7 +86112,7 @@
         <v>1771</v>
       </c>
       <c r="B1772" s="13" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="C1772" s="13" t="s">
         <v>22</v>
@@ -86181,7 +86121,7 @@
         <v>413</v>
       </c>
       <c r="E1772" s="13" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="F1772" s="10">
         <v>45253</v>
@@ -86208,7 +86148,7 @@
         <v>长期有效</v>
       </c>
       <c r="M1772" s="19" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="1773" ht="48.75" spans="1:13">
@@ -86216,16 +86156,16 @@
         <v>1772</v>
       </c>
       <c r="B1773" s="13" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="C1773" s="13" t="s">
         <v>706</v>
       </c>
       <c r="D1773" s="13" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="E1773" s="13" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="F1773" s="10">
         <v>45282</v>
@@ -86258,16 +86198,16 @@
         <v>1773</v>
       </c>
       <c r="B1774" s="13" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="C1774" s="13" t="s">
         <v>2461</v>
       </c>
       <c r="D1774" s="13" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="E1774" s="13" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="F1774" s="10">
         <v>45315</v>
@@ -86300,16 +86240,16 @@
         <v>1774</v>
       </c>
       <c r="B1775" s="13" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="C1775" s="13" t="s">
         <v>2461</v>
       </c>
       <c r="D1775" s="13" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="E1775" s="13" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="F1775" s="10">
         <v>45315</v>
@@ -86342,16 +86282,16 @@
         <v>1775</v>
       </c>
       <c r="B1776" s="13" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="C1776" s="13" t="s">
         <v>706</v>
       </c>
       <c r="D1776" s="13" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="E1776" s="13" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="F1776" s="10">
         <v>45341</v>
@@ -86384,16 +86324,16 @@
         <v>1776</v>
       </c>
       <c r="B1777" s="13" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="C1777" s="13" t="s">
         <v>2461</v>
       </c>
       <c r="D1777" s="54" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="E1777" s="13" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="F1777" s="10">
         <v>45351</v>
@@ -86426,16 +86366,16 @@
         <v>1777</v>
       </c>
       <c r="B1778" s="13" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="C1778" s="13" t="s">
         <v>2461</v>
       </c>
       <c r="D1778" s="54" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="E1778" s="13" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="F1778" s="10">
         <v>45351</v>
@@ -86468,7 +86408,7 @@
         <v>1778</v>
       </c>
       <c r="B1779" s="37" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="C1779" s="37" t="s">
         <v>14</v>
@@ -86477,7 +86417,7 @@
         <v>1432</v>
       </c>
       <c r="E1779" s="37" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="F1779" s="39">
         <v>45372</v>
@@ -86510,7 +86450,7 @@
         <v>1779</v>
       </c>
       <c r="B1780" s="37" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="C1780" s="37" t="s">
         <v>14</v>
@@ -86519,7 +86459,7 @@
         <v>1432</v>
       </c>
       <c r="E1780" s="37" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="F1780" s="39">
         <v>45372</v>
@@ -86552,7 +86492,7 @@
         <v>1780</v>
       </c>
       <c r="B1781" s="37" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="C1781" s="37" t="s">
         <v>14</v>
@@ -86561,7 +86501,7 @@
         <v>1432</v>
       </c>
       <c r="E1781" s="37" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="F1781" s="39">
         <v>45372</v>
@@ -86594,7 +86534,7 @@
         <v>1781</v>
       </c>
       <c r="B1782" s="37" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="C1782" s="37" t="s">
         <v>14</v>
@@ -86603,7 +86543,7 @@
         <v>413</v>
       </c>
       <c r="E1782" s="37" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="F1782" s="39">
         <v>45392</v>
@@ -86636,7 +86576,7 @@
         <v>1782</v>
       </c>
       <c r="B1783" s="37" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="C1783" s="37" t="s">
         <v>14</v>
@@ -86645,7 +86585,7 @@
         <v>413</v>
       </c>
       <c r="E1783" s="37" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="F1783" s="39">
         <v>45392</v>
@@ -86678,16 +86618,16 @@
         <v>1783</v>
       </c>
       <c r="B1784" s="37" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="C1784" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D1784" s="37" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="E1784" s="37" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="F1784" s="39">
         <v>45316</v>
@@ -86720,16 +86660,16 @@
         <v>1784</v>
       </c>
       <c r="B1785" s="37" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="C1785" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D1785" s="37" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="E1785" s="37" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="F1785" s="39">
         <v>45436</v>
@@ -86762,16 +86702,16 @@
         <v>1785</v>
       </c>
       <c r="B1786" s="37" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="C1786" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D1786" s="37" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="E1786" s="37" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="F1786" s="39">
         <v>45436</v>
@@ -86804,16 +86744,16 @@
         <v>1786</v>
       </c>
       <c r="B1787" s="37" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="C1787" s="37" t="s">
         <v>45</v>
       </c>
       <c r="D1787" s="37" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="E1787" s="37" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="F1787" s="39">
         <v>45196</v>
@@ -86846,40 +86786,40 @@
         <v>1787</v>
       </c>
       <c r="B1788" s="112" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C1788" s="112" t="s">
         <v>2694</v>
       </c>
-      <c r="C1788" s="112" t="s">
+      <c r="D1788" s="112" t="s">
         <v>2695</v>
       </c>
-      <c r="D1788" s="112" t="s">
+      <c r="E1788" s="112" t="s">
         <v>2696</v>
-      </c>
-      <c r="E1788" s="112" t="s">
-        <v>2697</v>
       </c>
       <c r="F1788" s="113">
         <v>45461</v>
       </c>
       <c r="G1788" s="113" t="s">
+        <v>2697</v>
+      </c>
+      <c r="H1788" s="113" t="s">
+        <v>2697</v>
+      </c>
+      <c r="I1788" s="112" t="s">
+        <v>2697</v>
+      </c>
+      <c r="J1788" s="118" t="s">
+        <v>2697</v>
+      </c>
+      <c r="K1788" s="118" t="s">
+        <v>2697</v>
+      </c>
+      <c r="L1788" s="112" t="s">
+        <v>2697</v>
+      </c>
+      <c r="M1788" s="119" t="s">
         <v>2698</v>
-      </c>
-      <c r="H1788" s="113" t="s">
-        <v>2698</v>
-      </c>
-      <c r="I1788" s="112" t="s">
-        <v>2698</v>
-      </c>
-      <c r="J1788" s="118" t="s">
-        <v>2698</v>
-      </c>
-      <c r="K1788" s="118" t="s">
-        <v>2698</v>
-      </c>
-      <c r="L1788" s="112" t="s">
-        <v>2698</v>
-      </c>
-      <c r="M1788" s="119" t="s">
-        <v>2699</v>
       </c>
     </row>
     <row r="1789" ht="14.55" spans="1:13">
@@ -86887,16 +86827,16 @@
         <v>1788</v>
       </c>
       <c r="B1789" s="37" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="C1789" s="37" t="s">
         <v>45</v>
       </c>
       <c r="D1789" s="37" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="E1789" s="37" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="F1789" s="39">
         <v>45091</v>
@@ -86912,7 +86852,7 @@
       </c>
       <c r="J1789" s="20">
         <f ca="1" t="shared" ref="J1789:J1794" si="121">IF(G1789="长期有效","长期有效",IF(TODAY()&gt;G1789,"过期",IF(G1789-TODAY()&lt;=180,G1789-TODAY(),"正常")))</f>
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="K1789" s="21" t="str">
         <f ca="1" t="shared" ref="K1789:K1794" si="122">IF(H1789="过期","过期",IF(H1789="长期有效","长期有效",IF(TODAY()&gt;H1789,"过期",IF(H1789-TODAY()&lt;=180,H1789-TODAY(),"正常"))))</f>
@@ -86920,7 +86860,7 @@
       </c>
       <c r="L1789" s="117">
         <f ca="1" t="shared" ref="L1789:L1794" si="123">IF(G1789="过期","过期",IF(G1789="长期有效","长期有效",IF(TODAY()&gt;G1789,"过期",IF(G1789-TODAY()&lt;=180,G1789-TODAY(),"正常"))))</f>
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="M1789" s="19"/>
     </row>
@@ -86929,16 +86869,16 @@
         <v>1789</v>
       </c>
       <c r="B1790" s="114" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="C1790" s="114" t="s">
         <v>14</v>
       </c>
       <c r="D1790" s="114" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="E1790" s="114" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="F1790" s="115">
         <v>45407</v>
@@ -86971,16 +86911,16 @@
         <v>1790</v>
       </c>
       <c r="B1791" s="37" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="C1791" s="37" t="s">
         <v>45</v>
       </c>
       <c r="D1791" s="37" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="E1791" s="37" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="F1791" s="39">
         <v>45196</v>
@@ -87013,16 +86953,16 @@
         <v>1791</v>
       </c>
       <c r="B1792" s="37" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="C1792" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D1792" s="37" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="E1792" s="37" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="F1792" s="115">
         <v>45407</v>
@@ -87055,16 +86995,16 @@
         <v>1792</v>
       </c>
       <c r="B1793" s="37" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="C1793" s="37" t="s">
         <v>1584</v>
       </c>
       <c r="D1793" s="81" t="s">
+        <v>2706</v>
+      </c>
+      <c r="E1793" s="37" t="s">
         <v>2707</v>
-      </c>
-      <c r="E1793" s="37" t="s">
-        <v>2708</v>
       </c>
       <c r="F1793" s="39">
         <v>44967</v>
@@ -87097,16 +87037,16 @@
         <v>1793</v>
       </c>
       <c r="B1794" s="37" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="C1794" s="37" t="s">
         <v>1584</v>
       </c>
       <c r="D1794" s="81" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E1794" s="37" t="s">
         <v>2710</v>
-      </c>
-      <c r="E1794" s="37" t="s">
-        <v>2711</v>
       </c>
       <c r="F1794" s="39">
         <v>45373</v>
